--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -1,45 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="270" yWindow="600" windowWidth="24615" windowHeight="11445"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Risks" sheetId="1" r:id="rId3"/>
+    <sheet name="Risks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E2">
+    <comment ref="E2" authorId="0">
       <text>
-        <t xml:space="preserve">Risk Type =
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Risk Type =
 Direct or Indirect
 Resource
 Business 
 Technical
 Schedule</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F2">
+    <comment ref="F2" authorId="0">
       <text>
-        <t xml:space="preserve">Impact is a numerical value, usually between 1 and 5, that represents the impact to the project if the risk comes true.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Impact is a numerical value, usually between 1 and 5, that represents the impact to the project if the risk comes true.
 5 is a HIGH IMPACT and 1 is LOW IMPACT.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G2">
+    <comment ref="G2" authorId="0">
       <text>
-        <t xml:space="preserve">Probability is the percentage chance that a risk will occur.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Probability is the percentage chance that a risk will occur.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H2">
+    <comment ref="H2" authorId="0">
       <text>
-        <t xml:space="preserve">Magnitude is the result of the multiplication of Probability and Impact, providing a joint metric suitable for sorting.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Magnitude is the result of the multiplication of Probability and Impact, providing a joint metric suitable for sorting.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -47,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>SABolsas -  Risk List</t>
   </si>
@@ -144,33 +175,65 @@
   <si>
     <t>Definir um aplicativo de comunicação, para discussão técnica sobre o projeto.</t>
   </si>
+  <si>
+    <t>Integrar sistema com a outra equipe.</t>
+  </si>
+  <si>
+    <t>Migração</t>
+  </si>
+  <si>
+    <t>Migrar sistema para Ruby.</t>
+  </si>
+  <si>
+    <t>Decidimos continuar fazendo em PHP.</t>
+  </si>
+  <si>
+    <t>Inegração</t>
+  </si>
+  <si>
+    <t>Decidimos seguir o nosso projeto focando em nossa parte e caso a outra equipe consiga progredir no seu desenvolvimento, então estudaremos a possibilidade da integração.</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Utilizar o Framework Laravel.</t>
+  </si>
+  <si>
+    <t>Estudar previamente o framework ao mesmo tempo que exercitamos a parte prática com auxílio de Michelle que tem um conhecimento mais avnaçado na área.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,7 +241,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
@@ -187,6 +250,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -201,6 +265,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -213,93 +278,381 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.43"/>
-    <col customWidth="1" min="2" max="2" width="10.29"/>
-    <col customWidth="1" min="3" max="3" width="34.86"/>
-    <col customWidth="1" min="4" max="4" width="35.71"/>
-    <col customWidth="1" min="5" max="5" width="11.0"/>
-    <col customWidth="1" min="6" max="6" width="9.43"/>
-    <col customWidth="1" min="7" max="7" width="9.29"/>
-    <col customWidth="1" min="8" max="8" width="8.29"/>
-    <col customWidth="1" min="9" max="9" width="23.29"/>
-    <col customWidth="1" min="10" max="10" width="50.14"/>
-    <col customWidth="1" min="11" max="20" width="11.43"/>
-    <col customWidth="1" min="21" max="26" width="8.0"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="50.140625" customWidth="1"/>
+    <col min="11" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:26" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -329,7 +682,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="65.25" customHeight="1">
+    <row r="2" spans="1:26" ht="65.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -377,12 +730,12 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1">
+    <row r="3" spans="1:26" ht="25.5" customHeight="1">
       <c r="A3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>42892.0</v>
+        <v>42892</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -394,13 +747,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="8">
         <v>0.3</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H17" si="1">+F3*G3</f>
+        <f t="shared" ref="H3:H17" si="0">+F3*G3</f>
         <v>1.5</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -426,12 +779,12 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" ht="25.5" customHeight="1">
+    <row r="4" spans="1:26" ht="25.5" customHeight="1">
       <c r="A4" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>42892.0</v>
+        <v>42892</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>16</v>
@@ -443,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="8">
         <v>0.2</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -475,12 +828,12 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" ht="25.5" customHeight="1">
+    <row r="5" spans="1:26" ht="25.5" customHeight="1">
       <c r="A5" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>42892.0</v>
+        <v>42892</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>20</v>
@@ -492,13 +845,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="8">
         <v>0.3</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -524,12 +877,12 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" ht="38.25" customHeight="1">
+    <row r="6" spans="1:26" ht="38.25" customHeight="1">
       <c r="A6" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>42897.0</v>
+        <v>42897</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>24</v>
@@ -541,13 +894,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="8">
         <v>0.2</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -573,12 +926,12 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" ht="25.5" customHeight="1">
+    <row r="7" spans="1:26" ht="25.5" customHeight="1">
       <c r="A7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>42897.0</v>
+        <v>42897</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>28</v>
@@ -590,13 +943,13 @@
         <v>13</v>
       </c>
       <c r="F7" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="8">
         <v>0.5</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -622,22 +975,38 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="A8" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="7">
+        <v>42906</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.8</v>
+      </c>
       <c r="H8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -655,22 +1024,38 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:26" ht="54" customHeight="1">
       <c r="A9" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="7">
+        <v>42907</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.9</v>
+      </c>
       <c r="H9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.5</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -688,22 +1073,38 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:26" ht="43.5" customHeight="1">
       <c r="A10" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="12">
+        <v>42913</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -721,9 +1122,9 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="A11" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -732,7 +1133,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="9"/>
@@ -754,9 +1155,9 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="A12" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -765,7 +1166,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="9"/>
@@ -787,9 +1188,9 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="A13" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -798,7 +1199,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="9"/>
@@ -820,9 +1221,9 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -831,7 +1232,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
@@ -853,9 +1254,9 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="A15" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -864,7 +1265,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="9"/>
@@ -886,9 +1287,9 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="A16" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
@@ -897,7 +1298,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
@@ -919,9 +1320,9 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:26" ht="12.75" customHeight="1">
       <c r="A17" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
@@ -930,7 +1331,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="9"/>
@@ -952,7 +1353,7 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -980,7 +1381,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1008,7 +1409,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1036,7 +1437,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:26" ht="12.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1064,7 +1465,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:26" ht="12.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1092,7 +1493,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1120,7 +1521,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1148,7 +1549,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1176,7 +1577,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1204,7 +1605,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1232,7 +1633,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1260,7 +1661,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1288,7 +1689,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1316,7 +1717,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:26" ht="12.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1344,7 +1745,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1372,7 +1773,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:26" ht="12.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1400,7 +1801,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:26" ht="12.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1428,7 +1829,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:26" ht="12.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1456,7 +1857,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:26" ht="12.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1484,7 +1885,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:26" ht="12.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1512,7 +1913,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:26" ht="12.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1540,7 +1941,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:26" ht="12.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1568,7 +1969,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:26" ht="12.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1596,7 +1997,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:26" ht="12.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1624,7 +2025,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:26" ht="12.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1652,7 +2053,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:26" ht="12.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1680,7 +2081,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:26" ht="12.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1708,7 +2109,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:26" ht="12.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1736,7 +2137,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:26" ht="12.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1764,7 +2165,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:26" ht="12.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1792,7 +2193,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:26" ht="12.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1820,7 +2221,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:26" ht="12.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1848,7 +2249,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:26" ht="12.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1876,7 +2277,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:26" ht="12.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1904,7 +2305,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:26" ht="12.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1932,7 +2333,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:26" ht="12.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1960,7 +2361,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:26" ht="12.75" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1988,7 +2389,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:26" ht="12.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2016,7 +2417,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:26" ht="12.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2044,7 +2445,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:26" ht="12.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2072,7 +2473,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:26" ht="12.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2100,7 +2501,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:26" ht="12.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2128,7 +2529,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:26" ht="12.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2156,7 +2557,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:26" ht="12.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2184,7 +2585,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:26" ht="12.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2212,7 +2613,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:26" ht="12.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2240,7 +2641,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:26" ht="12.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2268,7 +2669,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:26" ht="12.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2296,7 +2697,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:26" ht="12.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2324,7 +2725,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:26" ht="12.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2352,7 +2753,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:26" ht="12.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2380,7 +2781,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:26" ht="12.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2408,7 +2809,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:26" ht="12.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2436,7 +2837,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:26" ht="12.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2464,7 +2865,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:26" ht="12.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2492,7 +2893,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:26" ht="12.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2520,7 +2921,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:26" ht="12.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2548,7 +2949,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:26" ht="12.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2576,7 +2977,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:26" ht="12.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2604,7 +3005,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:26" ht="12.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2632,7 +3033,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:26" ht="12.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2660,7 +3061,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:26" ht="12.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2688,7 +3089,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:26" ht="12.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2716,7 +3117,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:26" ht="12.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2744,7 +3145,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:26" ht="12.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2772,7 +3173,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:26" ht="12.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2800,7 +3201,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:26" ht="12.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2828,7 +3229,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:26" ht="12.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2856,7 +3257,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:26" ht="12.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2884,7 +3285,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:26" ht="12.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2912,7 +3313,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:26" ht="12.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2940,7 +3341,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:26" ht="12.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2968,7 +3369,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:26" ht="12.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2996,7 +3397,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:26" ht="12.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3024,7 +3425,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:26" ht="12.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3052,7 +3453,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:26" ht="12.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3080,7 +3481,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:26" ht="12.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3108,7 +3509,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:26" ht="12.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3136,7 +3537,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:26" ht="12.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3164,7 +3565,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:26" ht="12.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3192,7 +3593,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:26" ht="12.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3220,7 +3621,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:26" ht="12.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3248,7 +3649,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:26" ht="12.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3276,7 +3677,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:26" ht="12.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3304,7 +3705,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:26" ht="12.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3332,7 +3733,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:26" ht="12.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3360,7 +3761,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:26" ht="12.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3388,7 +3789,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:26" ht="12.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3416,7 +3817,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:26" ht="12.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3444,7 +3845,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:26" ht="12.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3472,7 +3873,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:26" ht="12.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3500,7 +3901,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="1:26" ht="12.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3528,7 +3929,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:26" ht="12.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3556,7 +3957,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:26" ht="12.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3584,7 +3985,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:26" ht="12.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3612,7 +4013,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:26" ht="12.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3640,7 +4041,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:26" ht="12.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3668,7 +4069,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:26" ht="12.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3696,7 +4097,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:26" ht="12.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3724,7 +4125,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:26" ht="12.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3752,7 +4153,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:26" ht="12.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3780,7 +4181,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:26" ht="12.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3808,7 +4209,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:26" ht="12.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3836,7 +4237,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:26" ht="12.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3864,7 +4265,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:26" ht="12.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3892,7 +4293,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:26" ht="12.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3920,7 +4321,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:26" ht="12.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3948,7 +4349,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:26" ht="12.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3976,7 +4377,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:26" ht="12.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4004,7 +4405,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:26" ht="12.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4032,7 +4433,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:26" ht="12.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4060,7 +4461,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:26" ht="12.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4088,7 +4489,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:26" ht="12.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4116,7 +4517,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:26" ht="12.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4144,7 +4545,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:26" ht="12.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4172,7 +4573,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:26" ht="12.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4200,7 +4601,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:26" ht="12.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4228,7 +4629,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:26" ht="12.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4256,7 +4657,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:26" ht="12.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4284,7 +4685,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:26" ht="12.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4312,7 +4713,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:26" ht="12.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4340,7 +4741,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:26" ht="12.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4368,7 +4769,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:26" ht="12.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4396,7 +4797,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:26" ht="12.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4424,7 +4825,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:26" ht="12.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4452,7 +4853,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:26" ht="12.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4480,7 +4881,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:26" ht="12.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4508,7 +4909,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="1:26" ht="12.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4536,7 +4937,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="1:26" ht="12.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4564,7 +4965,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="1:26" ht="12.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4592,7 +4993,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="1:26" ht="12.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4620,7 +5021,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="1:26" ht="12.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4648,7 +5049,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="1:26" ht="12.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4676,7 +5077,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="1:26" ht="12.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4704,7 +5105,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="1:26" ht="12.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4732,7 +5133,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="1:26" ht="12.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4760,7 +5161,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="1:26" ht="12.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4788,7 +5189,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="1:26" ht="12.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4816,7 +5217,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="1:26" ht="12.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4844,7 +5245,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="1:26" ht="12.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4872,7 +5273,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="1:26" ht="12.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4900,7 +5301,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="1:26" ht="12.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4928,7 +5329,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="1:26" ht="12.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4956,7 +5357,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:26" ht="12.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4984,7 +5385,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="1:26" ht="12.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5012,7 +5413,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="1:26" ht="12.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5040,7 +5441,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="1:26" ht="12.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5068,7 +5469,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="1:26" ht="12.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5096,7 +5497,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="1:26" ht="12.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5124,7 +5525,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="1:26" ht="12.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5152,7 +5553,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="1:26" ht="12.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5180,7 +5581,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="1:26" ht="12.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5208,7 +5609,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="1:26" ht="12.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5236,7 +5637,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="1:26" ht="12.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5264,7 +5665,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="1:26" ht="12.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5292,7 +5693,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="1:26" ht="12.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5320,7 +5721,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="1:26" ht="12.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5348,7 +5749,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="1:26" ht="12.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5376,7 +5777,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="1:26" ht="12.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5404,7 +5805,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="1:26" ht="12.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5432,7 +5833,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="1:26" ht="12.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5460,7 +5861,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="1:26" ht="12.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5488,7 +5889,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="1:26" ht="12.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5516,7 +5917,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="1:26" ht="12.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5544,7 +5945,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="1:26" ht="12.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5572,7 +5973,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="1:26" ht="12.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5600,7 +6001,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="1:26" ht="12.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5628,7 +6029,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="1:26" ht="12.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5656,7 +6057,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="1:26" ht="12.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5684,7 +6085,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="1:26" ht="12.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5712,7 +6113,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="1:26" ht="12.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5740,7 +6141,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="1:26" ht="12.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5768,7 +6169,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="1:26" ht="12.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5796,7 +6197,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="1:26" ht="12.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5824,7 +6225,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="1:26" ht="12.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5852,7 +6253,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="1:26" ht="12.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5880,7 +6281,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="1:26" ht="12.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5908,7 +6309,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="1:26" ht="12.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5936,7 +6337,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="1:26" ht="12.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5964,7 +6365,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="1:26" ht="12.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5992,7 +6393,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="1:26" ht="12.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6020,7 +6421,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="1:26" ht="12.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6048,7 +6449,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="1:26" ht="12.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6076,7 +6477,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="1:26" ht="12.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6104,7 +6505,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="1:26" ht="12.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6132,7 +6533,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="1:26" ht="12.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6160,7 +6561,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="1:26" ht="12.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6188,7 +6589,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="1:26" ht="12.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6216,7 +6617,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="1:26" ht="12.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6244,7 +6645,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="1:26" ht="12.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6272,7 +6673,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="1:26" ht="12.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6300,7 +6701,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="1:26" ht="12.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6328,7 +6729,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="1:26" ht="12.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6356,7 +6757,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="1:26" ht="12.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6384,7 +6785,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="1:26" ht="12.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6412,7 +6813,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="1:26" ht="12.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6440,7 +6841,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="1:26" ht="12.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6468,7 +6869,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="1:26" ht="12.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6496,7 +6897,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="1:26" ht="12.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6524,7 +6925,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="1:26" ht="12.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6552,7 +6953,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="1:26" ht="12.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6580,7 +6981,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="1:26" ht="12.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6608,7 +7009,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="1:26" ht="12.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6636,7 +7037,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" spans="1:26" ht="12.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6664,7 +7065,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" spans="1:26" ht="12.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6692,7 +7093,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" spans="1:26" ht="12.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6720,7 +7121,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" spans="1:26" ht="12.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6748,7 +7149,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" spans="1:26" ht="12.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6776,7 +7177,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" spans="1:26" ht="12.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6804,7 +7205,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" spans="1:26" ht="12.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6832,7 +7233,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" spans="1:26" ht="12.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6860,7 +7261,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" spans="1:26" ht="12.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6888,7 +7289,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" spans="1:26" ht="12.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6916,7 +7317,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" spans="1:26" ht="12.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6944,7 +7345,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" spans="1:26" ht="12.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6972,7 +7373,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" spans="1:26" ht="12.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7000,7 +7401,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" spans="1:26" ht="12.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7028,7 +7429,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" spans="1:26" ht="12.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7056,7 +7457,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" spans="1:26" ht="12.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7084,7 +7485,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" spans="1:26" ht="12.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7112,7 +7513,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" spans="1:26" ht="12.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7140,7 +7541,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" spans="1:26" ht="12.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7168,7 +7569,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" spans="1:26" ht="12.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7196,7 +7597,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" spans="1:26" ht="12.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7224,7 +7625,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" spans="1:26" ht="12.75" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7252,7 +7653,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" spans="1:26" ht="12.75" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7280,7 +7681,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" spans="1:26" ht="12.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7308,7 +7709,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" spans="1:26" ht="12.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7336,7 +7737,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" spans="1:26" ht="12.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7364,7 +7765,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" spans="1:26" ht="12.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7392,7 +7793,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" spans="1:26" ht="12.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7420,7 +7821,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" spans="1:26" ht="12.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7448,7 +7849,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" spans="1:26" ht="12.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7476,7 +7877,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" spans="1:26" ht="12.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7504,7 +7905,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" spans="1:26" ht="12.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7532,7 +7933,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" spans="1:26" ht="12.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7560,7 +7961,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" spans="1:26" ht="12.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7588,7 +7989,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" spans="1:26" ht="12.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7616,7 +8017,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" spans="1:26" ht="12.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7644,7 +8045,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" spans="1:26" ht="12.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7672,7 +8073,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" spans="1:26" ht="12.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7700,7 +8101,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" spans="1:26" ht="12.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7728,7 +8129,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" spans="1:26" ht="12.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7756,7 +8157,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" ht="12.75" customHeight="1">
+    <row r="261" spans="1:26" ht="12.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7784,7 +8185,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" ht="12.75" customHeight="1">
+    <row r="262" spans="1:26" ht="12.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7812,7 +8213,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" ht="12.75" customHeight="1">
+    <row r="263" spans="1:26" ht="12.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7840,7 +8241,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" ht="12.75" customHeight="1">
+    <row r="264" spans="1:26" ht="12.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7868,7 +8269,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="265" spans="1:26" ht="12.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7896,7 +8297,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1">
+    <row r="266" spans="1:26" ht="12.75" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7924,7 +8325,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" ht="12.75" customHeight="1">
+    <row r="267" spans="1:26" ht="12.75" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7952,7 +8353,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" ht="12.75" customHeight="1">
+    <row r="268" spans="1:26" ht="12.75" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7980,7 +8381,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" ht="12.75" customHeight="1">
+    <row r="269" spans="1:26" ht="12.75" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8008,7 +8409,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" ht="12.75" customHeight="1">
+    <row r="270" spans="1:26" ht="12.75" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8036,7 +8437,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1">
+    <row r="271" spans="1:26" ht="12.75" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8064,7 +8465,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" ht="12.75" customHeight="1">
+    <row r="272" spans="1:26" ht="12.75" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8092,7 +8493,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" ht="12.75" customHeight="1">
+    <row r="273" spans="1:26" ht="12.75" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8120,7 +8521,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" ht="12.75" customHeight="1">
+    <row r="274" spans="1:26" ht="12.75" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8148,7 +8549,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" ht="12.75" customHeight="1">
+    <row r="275" spans="1:26" ht="12.75" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8176,7 +8577,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" ht="12.75" customHeight="1">
+    <row r="276" spans="1:26" ht="12.75" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8204,7 +8605,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" ht="12.75" customHeight="1">
+    <row r="277" spans="1:26" ht="12.75" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8232,7 +8633,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" ht="12.75" customHeight="1">
+    <row r="278" spans="1:26" ht="12.75" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8260,7 +8661,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" ht="12.75" customHeight="1">
+    <row r="279" spans="1:26" ht="12.75" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8288,7 +8689,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" ht="12.75" customHeight="1">
+    <row r="280" spans="1:26" ht="12.75" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8316,7 +8717,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" ht="12.75" customHeight="1">
+    <row r="281" spans="1:26" ht="12.75" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8344,7 +8745,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" ht="12.75" customHeight="1">
+    <row r="282" spans="1:26" ht="12.75" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8372,7 +8773,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" ht="12.75" customHeight="1">
+    <row r="283" spans="1:26" ht="12.75" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8400,7 +8801,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" ht="12.75" customHeight="1">
+    <row r="284" spans="1:26" ht="12.75" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8428,7 +8829,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" ht="12.75" customHeight="1">
+    <row r="285" spans="1:26" ht="12.75" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8456,7 +8857,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" spans="1:26" ht="12.75" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8484,7 +8885,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" spans="1:26" ht="12.75" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8512,7 +8913,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" ht="12.75" customHeight="1">
+    <row r="288" spans="1:26" ht="12.75" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8540,7 +8941,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" ht="12.75" customHeight="1">
+    <row r="289" spans="1:26" ht="12.75" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8568,7 +8969,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" ht="12.75" customHeight="1">
+    <row r="290" spans="1:26" ht="12.75" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8596,7 +8997,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" ht="12.75" customHeight="1">
+    <row r="291" spans="1:26" ht="12.75" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8624,7 +9025,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1">
+    <row r="292" spans="1:26" ht="12.75" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8652,7 +9053,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
+    <row r="293" spans="1:26" ht="12.75" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8680,7 +9081,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1">
+    <row r="294" spans="1:26" ht="12.75" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8708,7 +9109,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" ht="12.75" customHeight="1">
+    <row r="295" spans="1:26" ht="12.75" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8736,7 +9137,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1">
+    <row r="296" spans="1:26" ht="12.75" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8764,7 +9165,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1">
+    <row r="297" spans="1:26" ht="12.75" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8792,7 +9193,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
+    <row r="298" spans="1:26" ht="12.75" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8820,7 +9221,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
+    <row r="299" spans="1:26" ht="12.75" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8848,7 +9249,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1">
+    <row r="300" spans="1:26" ht="12.75" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8876,7 +9277,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1">
+    <row r="301" spans="1:26" ht="12.75" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8904,7 +9305,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1">
+    <row r="302" spans="1:26" ht="12.75" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8932,7 +9333,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1">
+    <row r="303" spans="1:26" ht="12.75" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -8960,7 +9361,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1">
+    <row r="304" spans="1:26" ht="12.75" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -8988,7 +9389,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" ht="12.75" customHeight="1">
+    <row r="305" spans="1:26" ht="12.75" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9016,7 +9417,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" ht="12.75" customHeight="1">
+    <row r="306" spans="1:26" ht="12.75" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9044,7 +9445,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" ht="12.75" customHeight="1">
+    <row r="307" spans="1:26" ht="12.75" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9072,7 +9473,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" ht="12.75" customHeight="1">
+    <row r="308" spans="1:26" ht="12.75" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9100,7 +9501,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" ht="12.75" customHeight="1">
+    <row r="309" spans="1:26" ht="12.75" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9128,7 +9529,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" ht="12.75" customHeight="1">
+    <row r="310" spans="1:26" ht="12.75" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9156,7 +9557,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" ht="12.75" customHeight="1">
+    <row r="311" spans="1:26" ht="12.75" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9184,7 +9585,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" ht="12.75" customHeight="1">
+    <row r="312" spans="1:26" ht="12.75" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9212,7 +9613,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1">
+    <row r="313" spans="1:26" ht="12.75" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9240,7 +9641,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1">
+    <row r="314" spans="1:26" ht="12.75" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9268,7 +9669,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1">
+    <row r="315" spans="1:26" ht="12.75" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9296,7 +9697,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" ht="12.75" customHeight="1">
+    <row r="316" spans="1:26" ht="12.75" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9324,7 +9725,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" ht="12.75" customHeight="1">
+    <row r="317" spans="1:26" ht="12.75" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9352,7 +9753,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" ht="12.75" customHeight="1">
+    <row r="318" spans="1:26" ht="12.75" customHeight="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9380,7 +9781,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1">
+    <row r="319" spans="1:26" ht="12.75" customHeight="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9408,7 +9809,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1">
+    <row r="320" spans="1:26" ht="12.75" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9436,7 +9837,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" ht="12.75" customHeight="1">
+    <row r="321" spans="1:26" ht="12.75" customHeight="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9464,7 +9865,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" ht="12.75" customHeight="1">
+    <row r="322" spans="1:26" ht="12.75" customHeight="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9492,7 +9893,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" ht="12.75" customHeight="1">
+    <row r="323" spans="1:26" ht="12.75" customHeight="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9520,7 +9921,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" ht="12.75" customHeight="1">
+    <row r="324" spans="1:26" ht="12.75" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9548,7 +9949,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" ht="12.75" customHeight="1">
+    <row r="325" spans="1:26" ht="12.75" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9576,7 +9977,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" ht="12.75" customHeight="1">
+    <row r="326" spans="1:26" ht="12.75" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9604,7 +10005,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" ht="12.75" customHeight="1">
+    <row r="327" spans="1:26" ht="12.75" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9632,7 +10033,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" ht="12.75" customHeight="1">
+    <row r="328" spans="1:26" ht="12.75" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9660,7 +10061,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" ht="12.75" customHeight="1">
+    <row r="329" spans="1:26" ht="12.75" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9688,7 +10089,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" ht="12.75" customHeight="1">
+    <row r="330" spans="1:26" ht="12.75" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9716,7 +10117,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1">
+    <row r="331" spans="1:26" ht="12.75" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9744,7 +10145,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1">
+    <row r="332" spans="1:26" ht="12.75" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9772,7 +10173,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" ht="12.75" customHeight="1">
+    <row r="333" spans="1:26" ht="12.75" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9800,7 +10201,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" ht="12.75" customHeight="1">
+    <row r="334" spans="1:26" ht="12.75" customHeight="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9828,7 +10229,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" ht="12.75" customHeight="1">
+    <row r="335" spans="1:26" ht="12.75" customHeight="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9856,7 +10257,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" ht="12.75" customHeight="1">
+    <row r="336" spans="1:26" ht="12.75" customHeight="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9884,7 +10285,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" ht="12.75" customHeight="1">
+    <row r="337" spans="1:26" ht="12.75" customHeight="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9912,7 +10313,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" ht="12.75" customHeight="1">
+    <row r="338" spans="1:26" ht="12.75" customHeight="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9940,7 +10341,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" ht="12.75" customHeight="1">
+    <row r="339" spans="1:26" ht="12.75" customHeight="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -9968,7 +10369,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" ht="12.75" customHeight="1">
+    <row r="340" spans="1:26" ht="12.75" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -9996,7 +10397,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1">
+    <row r="341" spans="1:26" ht="12.75" customHeight="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -10024,7 +10425,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" ht="12.75" customHeight="1">
+    <row r="342" spans="1:26" ht="12.75" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -10052,7 +10453,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" ht="12.75" customHeight="1">
+    <row r="343" spans="1:26" ht="12.75" customHeight="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10080,7 +10481,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" ht="12.75" customHeight="1">
+    <row r="344" spans="1:26" ht="12.75" customHeight="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10108,7 +10509,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" ht="12.75" customHeight="1">
+    <row r="345" spans="1:26" ht="12.75" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10136,7 +10537,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" ht="12.75" customHeight="1">
+    <row r="346" spans="1:26" ht="12.75" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10164,7 +10565,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" ht="12.75" customHeight="1">
+    <row r="347" spans="1:26" ht="12.75" customHeight="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -10192,7 +10593,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" ht="12.75" customHeight="1">
+    <row r="348" spans="1:26" ht="12.75" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10220,7 +10621,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" ht="12.75" customHeight="1">
+    <row r="349" spans="1:26" ht="12.75" customHeight="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10248,7 +10649,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" ht="12.75" customHeight="1">
+    <row r="350" spans="1:26" ht="12.75" customHeight="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10276,7 +10677,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" ht="12.75" customHeight="1">
+    <row r="351" spans="1:26" ht="12.75" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10304,7 +10705,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" ht="12.75" customHeight="1">
+    <row r="352" spans="1:26" ht="12.75" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10332,7 +10733,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" ht="12.75" customHeight="1">
+    <row r="353" spans="1:26" ht="12.75" customHeight="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10360,7 +10761,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" ht="12.75" customHeight="1">
+    <row r="354" spans="1:26" ht="12.75" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10388,7 +10789,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" ht="12.75" customHeight="1">
+    <row r="355" spans="1:26" ht="12.75" customHeight="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10416,7 +10817,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" ht="12.75" customHeight="1">
+    <row r="356" spans="1:26" ht="12.75" customHeight="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10444,7 +10845,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" ht="12.75" customHeight="1">
+    <row r="357" spans="1:26" ht="12.75" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10472,7 +10873,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" ht="12.75" customHeight="1">
+    <row r="358" spans="1:26" ht="12.75" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10500,7 +10901,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" ht="12.75" customHeight="1">
+    <row r="359" spans="1:26" ht="12.75" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10528,7 +10929,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" ht="12.75" customHeight="1">
+    <row r="360" spans="1:26" ht="12.75" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10556,7 +10957,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" ht="12.75" customHeight="1">
+    <row r="361" spans="1:26" ht="12.75" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10584,7 +10985,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" ht="12.75" customHeight="1">
+    <row r="362" spans="1:26" ht="12.75" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10612,7 +11013,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" ht="12.75" customHeight="1">
+    <row r="363" spans="1:26" ht="12.75" customHeight="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10640,7 +11041,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" ht="12.75" customHeight="1">
+    <row r="364" spans="1:26" ht="12.75" customHeight="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10668,7 +11069,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" ht="12.75" customHeight="1">
+    <row r="365" spans="1:26" ht="12.75" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10696,7 +11097,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" ht="12.75" customHeight="1">
+    <row r="366" spans="1:26" ht="12.75" customHeight="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10724,7 +11125,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" ht="12.75" customHeight="1">
+    <row r="367" spans="1:26" ht="12.75" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10752,7 +11153,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" ht="12.75" customHeight="1">
+    <row r="368" spans="1:26" ht="12.75" customHeight="1">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10780,7 +11181,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" ht="12.75" customHeight="1">
+    <row r="369" spans="1:26" ht="12.75" customHeight="1">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10808,7 +11209,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" ht="12.75" customHeight="1">
+    <row r="370" spans="1:26" ht="12.75" customHeight="1">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10836,7 +11237,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" ht="12.75" customHeight="1">
+    <row r="371" spans="1:26" ht="12.75" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10864,7 +11265,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" ht="12.75" customHeight="1">
+    <row r="372" spans="1:26" ht="12.75" customHeight="1">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10892,7 +11293,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" ht="12.75" customHeight="1">
+    <row r="373" spans="1:26" ht="12.75" customHeight="1">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10920,7 +11321,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" ht="12.75" customHeight="1">
+    <row r="374" spans="1:26" ht="12.75" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10948,7 +11349,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" ht="12.75" customHeight="1">
+    <row r="375" spans="1:26" ht="12.75" customHeight="1">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10976,7 +11377,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" ht="12.75" customHeight="1">
+    <row r="376" spans="1:26" ht="12.75" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -11004,7 +11405,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" ht="12.75" customHeight="1">
+    <row r="377" spans="1:26" ht="12.75" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -11032,7 +11433,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" ht="12.75" customHeight="1">
+    <row r="378" spans="1:26" ht="12.75" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -11060,7 +11461,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" ht="12.75" customHeight="1">
+    <row r="379" spans="1:26" ht="12.75" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -11088,7 +11489,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" ht="12.75" customHeight="1">
+    <row r="380" spans="1:26" ht="12.75" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -11116,7 +11517,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" ht="12.75" customHeight="1">
+    <row r="381" spans="1:26" ht="12.75" customHeight="1">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -11144,7 +11545,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" ht="12.75" customHeight="1">
+    <row r="382" spans="1:26" ht="12.75" customHeight="1">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -11172,7 +11573,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1">
+    <row r="383" spans="1:26" ht="12.75" customHeight="1">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -11200,7 +11601,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" ht="12.75" customHeight="1">
+    <row r="384" spans="1:26" ht="12.75" customHeight="1">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11228,7 +11629,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" ht="12.75" customHeight="1">
+    <row r="385" spans="1:26" ht="12.75" customHeight="1">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11256,7 +11657,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" ht="12.75" customHeight="1">
+    <row r="386" spans="1:26" ht="12.75" customHeight="1">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11284,7 +11685,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" ht="12.75" customHeight="1">
+    <row r="387" spans="1:26" ht="12.75" customHeight="1">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11312,7 +11713,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" ht="12.75" customHeight="1">
+    <row r="388" spans="1:26" ht="12.75" customHeight="1">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11340,7 +11741,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" ht="12.75" customHeight="1">
+    <row r="389" spans="1:26" ht="12.75" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11368,7 +11769,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1">
+    <row r="390" spans="1:26" ht="12.75" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11396,7 +11797,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1">
+    <row r="391" spans="1:26" ht="12.75" customHeight="1">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11424,7 +11825,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" ht="12.75" customHeight="1">
+    <row r="392" spans="1:26" ht="12.75" customHeight="1">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11452,7 +11853,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" ht="12.75" customHeight="1">
+    <row r="393" spans="1:26" ht="12.75" customHeight="1">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11480,7 +11881,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" ht="12.75" customHeight="1">
+    <row r="394" spans="1:26" ht="12.75" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11508,7 +11909,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" ht="12.75" customHeight="1">
+    <row r="395" spans="1:26" ht="12.75" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11536,7 +11937,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" ht="12.75" customHeight="1">
+    <row r="396" spans="1:26" ht="12.75" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11564,7 +11965,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" ht="12.75" customHeight="1">
+    <row r="397" spans="1:26" ht="12.75" customHeight="1">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11592,7 +11993,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" ht="12.75" customHeight="1">
+    <row r="398" spans="1:26" ht="12.75" customHeight="1">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11620,7 +12021,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" ht="12.75" customHeight="1">
+    <row r="399" spans="1:26" ht="12.75" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11648,7 +12049,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" ht="12.75" customHeight="1">
+    <row r="400" spans="1:26" ht="12.75" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11676,7 +12077,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" ht="12.75" customHeight="1">
+    <row r="401" spans="1:26" ht="12.75" customHeight="1">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11704,7 +12105,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" ht="12.75" customHeight="1">
+    <row r="402" spans="1:26" ht="12.75" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11732,7 +12133,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" ht="12.75" customHeight="1">
+    <row r="403" spans="1:26" ht="12.75" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11760,7 +12161,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" ht="12.75" customHeight="1">
+    <row r="404" spans="1:26" ht="12.75" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11788,7 +12189,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" ht="12.75" customHeight="1">
+    <row r="405" spans="1:26" ht="12.75" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11816,7 +12217,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" ht="12.75" customHeight="1">
+    <row r="406" spans="1:26" ht="12.75" customHeight="1">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11844,7 +12245,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" ht="12.75" customHeight="1">
+    <row r="407" spans="1:26" ht="12.75" customHeight="1">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11872,7 +12273,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" ht="12.75" customHeight="1">
+    <row r="408" spans="1:26" ht="12.75" customHeight="1">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11900,7 +12301,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" ht="12.75" customHeight="1">
+    <row r="409" spans="1:26" ht="12.75" customHeight="1">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11928,7 +12329,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" ht="12.75" customHeight="1">
+    <row r="410" spans="1:26" ht="12.75" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11956,7 +12357,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" ht="12.75" customHeight="1">
+    <row r="411" spans="1:26" ht="12.75" customHeight="1">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11984,7 +12385,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" ht="12.75" customHeight="1">
+    <row r="412" spans="1:26" ht="12.75" customHeight="1">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -12012,7 +12413,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" ht="12.75" customHeight="1">
+    <row r="413" spans="1:26" ht="12.75" customHeight="1">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -12040,7 +12441,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" ht="12.75" customHeight="1">
+    <row r="414" spans="1:26" ht="12.75" customHeight="1">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -12068,7 +12469,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" ht="12.75" customHeight="1">
+    <row r="415" spans="1:26" ht="12.75" customHeight="1">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -12096,7 +12497,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" ht="12.75" customHeight="1">
+    <row r="416" spans="1:26" ht="12.75" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -12124,7 +12525,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" ht="12.75" customHeight="1">
+    <row r="417" spans="1:26" ht="12.75" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -12152,7 +12553,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" ht="12.75" customHeight="1">
+    <row r="418" spans="1:26" ht="12.75" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -12180,7 +12581,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" ht="12.75" customHeight="1">
+    <row r="419" spans="1:26" ht="12.75" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -12208,7 +12609,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" ht="12.75" customHeight="1">
+    <row r="420" spans="1:26" ht="12.75" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -12236,7 +12637,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" ht="12.75" customHeight="1">
+    <row r="421" spans="1:26" ht="12.75" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -12264,7 +12665,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" ht="12.75" customHeight="1">
+    <row r="422" spans="1:26" ht="12.75" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12292,7 +12693,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" ht="12.75" customHeight="1">
+    <row r="423" spans="1:26" ht="12.75" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12320,7 +12721,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" ht="12.75" customHeight="1">
+    <row r="424" spans="1:26" ht="12.75" customHeight="1">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12348,7 +12749,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" ht="12.75" customHeight="1">
+    <row r="425" spans="1:26" ht="12.75" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12376,7 +12777,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" ht="12.75" customHeight="1">
+    <row r="426" spans="1:26" ht="12.75" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12404,7 +12805,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" ht="12.75" customHeight="1">
+    <row r="427" spans="1:26" ht="12.75" customHeight="1">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12432,7 +12833,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" ht="12.75" customHeight="1">
+    <row r="428" spans="1:26" ht="12.75" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12460,7 +12861,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" ht="12.75" customHeight="1">
+    <row r="429" spans="1:26" ht="12.75" customHeight="1">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12488,7 +12889,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" ht="12.75" customHeight="1">
+    <row r="430" spans="1:26" ht="12.75" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12516,7 +12917,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" ht="12.75" customHeight="1">
+    <row r="431" spans="1:26" ht="12.75" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12544,7 +12945,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" ht="12.75" customHeight="1">
+    <row r="432" spans="1:26" ht="12.75" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12572,7 +12973,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" ht="12.75" customHeight="1">
+    <row r="433" spans="1:26" ht="12.75" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12600,7 +13001,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" ht="12.75" customHeight="1">
+    <row r="434" spans="1:26" ht="12.75" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12628,7 +13029,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" ht="12.75" customHeight="1">
+    <row r="435" spans="1:26" ht="12.75" customHeight="1">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12656,7 +13057,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" ht="12.75" customHeight="1">
+    <row r="436" spans="1:26" ht="12.75" customHeight="1">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12684,7 +13085,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" ht="12.75" customHeight="1">
+    <row r="437" spans="1:26" ht="12.75" customHeight="1">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12712,7 +13113,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" ht="12.75" customHeight="1">
+    <row r="438" spans="1:26" ht="12.75" customHeight="1">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12740,7 +13141,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" ht="12.75" customHeight="1">
+    <row r="439" spans="1:26" ht="12.75" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -12768,7 +13169,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" ht="12.75" customHeight="1">
+    <row r="440" spans="1:26" ht="12.75" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -12796,7 +13197,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" ht="12.75" customHeight="1">
+    <row r="441" spans="1:26" ht="12.75" customHeight="1">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -12824,7 +13225,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" ht="12.75" customHeight="1">
+    <row r="442" spans="1:26" ht="12.75" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12852,7 +13253,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" ht="12.75" customHeight="1">
+    <row r="443" spans="1:26" ht="12.75" customHeight="1">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12880,7 +13281,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" ht="12.75" customHeight="1">
+    <row r="444" spans="1:26" ht="12.75" customHeight="1">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12908,7 +13309,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" ht="12.75" customHeight="1">
+    <row r="445" spans="1:26" ht="12.75" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12936,7 +13337,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" ht="12.75" customHeight="1">
+    <row r="446" spans="1:26" ht="12.75" customHeight="1">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12964,7 +13365,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" ht="12.75" customHeight="1">
+    <row r="447" spans="1:26" ht="12.75" customHeight="1">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12992,7 +13393,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" ht="12.75" customHeight="1">
+    <row r="448" spans="1:26" ht="12.75" customHeight="1">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -13020,7 +13421,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" ht="12.75" customHeight="1">
+    <row r="449" spans="1:26" ht="12.75" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -13048,7 +13449,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" ht="12.75" customHeight="1">
+    <row r="450" spans="1:26" ht="12.75" customHeight="1">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -13076,7 +13477,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" ht="12.75" customHeight="1">
+    <row r="451" spans="1:26" ht="12.75" customHeight="1">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -13104,7 +13505,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" ht="12.75" customHeight="1">
+    <row r="452" spans="1:26" ht="12.75" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -13132,7 +13533,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" ht="12.75" customHeight="1">
+    <row r="453" spans="1:26" ht="12.75" customHeight="1">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -13160,7 +13561,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" ht="12.75" customHeight="1">
+    <row r="454" spans="1:26" ht="12.75" customHeight="1">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -13188,7 +13589,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" ht="12.75" customHeight="1">
+    <row r="455" spans="1:26" ht="12.75" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -13216,7 +13617,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" ht="12.75" customHeight="1">
+    <row r="456" spans="1:26" ht="12.75" customHeight="1">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -13244,7 +13645,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" ht="12.75" customHeight="1">
+    <row r="457" spans="1:26" ht="12.75" customHeight="1">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -13272,7 +13673,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" ht="12.75" customHeight="1">
+    <row r="458" spans="1:26" ht="12.75" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -13300,7 +13701,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" ht="12.75" customHeight="1">
+    <row r="459" spans="1:26" ht="12.75" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -13328,7 +13729,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" ht="12.75" customHeight="1">
+    <row r="460" spans="1:26" ht="12.75" customHeight="1">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -13356,7 +13757,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" ht="12.75" customHeight="1">
+    <row r="461" spans="1:26" ht="12.75" customHeight="1">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13384,7 +13785,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" ht="12.75" customHeight="1">
+    <row r="462" spans="1:26" ht="12.75" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13412,7 +13813,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" ht="12.75" customHeight="1">
+    <row r="463" spans="1:26" ht="12.75" customHeight="1">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13440,7 +13841,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" ht="12.75" customHeight="1">
+    <row r="464" spans="1:26" ht="12.75" customHeight="1">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13468,7 +13869,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" ht="12.75" customHeight="1">
+    <row r="465" spans="1:26" ht="12.75" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13496,7 +13897,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" ht="12.75" customHeight="1">
+    <row r="466" spans="1:26" ht="12.75" customHeight="1">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -13524,7 +13925,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" ht="12.75" customHeight="1">
+    <row r="467" spans="1:26" ht="12.75" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13552,7 +13953,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" ht="12.75" customHeight="1">
+    <row r="468" spans="1:26" ht="12.75" customHeight="1">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13580,7 +13981,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" ht="12.75" customHeight="1">
+    <row r="469" spans="1:26" ht="12.75" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13608,7 +14009,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" ht="12.75" customHeight="1">
+    <row r="470" spans="1:26" ht="12.75" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13636,7 +14037,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" ht="12.75" customHeight="1">
+    <row r="471" spans="1:26" ht="12.75" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13664,7 +14065,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" ht="12.75" customHeight="1">
+    <row r="472" spans="1:26" ht="12.75" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13692,7 +14093,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" ht="12.75" customHeight="1">
+    <row r="473" spans="1:26" ht="12.75" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13720,7 +14121,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" ht="12.75" customHeight="1">
+    <row r="474" spans="1:26" ht="12.75" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13748,7 +14149,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" ht="12.75" customHeight="1">
+    <row r="475" spans="1:26" ht="12.75" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -13776,7 +14177,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" ht="12.75" customHeight="1">
+    <row r="476" spans="1:26" ht="12.75" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -13804,7 +14205,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" ht="12.75" customHeight="1">
+    <row r="477" spans="1:26" ht="12.75" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -13832,7 +14233,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" ht="12.75" customHeight="1">
+    <row r="478" spans="1:26" ht="12.75" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -13860,7 +14261,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" ht="12.75" customHeight="1">
+    <row r="479" spans="1:26" ht="12.75" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -13888,7 +14289,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" ht="12.75" customHeight="1">
+    <row r="480" spans="1:26" ht="12.75" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -13916,7 +14317,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" ht="12.75" customHeight="1">
+    <row r="481" spans="1:26" ht="12.75" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -13944,7 +14345,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" ht="12.75" customHeight="1">
+    <row r="482" spans="1:26" ht="12.75" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13972,7 +14373,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" ht="12.75" customHeight="1">
+    <row r="483" spans="1:26" ht="12.75" customHeight="1">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -14000,7 +14401,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" ht="12.75" customHeight="1">
+    <row r="484" spans="1:26" ht="12.75" customHeight="1">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -14028,7 +14429,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" ht="12.75" customHeight="1">
+    <row r="485" spans="1:26" ht="12.75" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -14056,7 +14457,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" ht="12.75" customHeight="1">
+    <row r="486" spans="1:26" ht="12.75" customHeight="1">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -14084,7 +14485,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" ht="12.75" customHeight="1">
+    <row r="487" spans="1:26" ht="12.75" customHeight="1">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -14112,7 +14513,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" ht="12.75" customHeight="1">
+    <row r="488" spans="1:26" ht="12.75" customHeight="1">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -14140,7 +14541,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" ht="12.75" customHeight="1">
+    <row r="489" spans="1:26" ht="12.75" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -14168,7 +14569,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" ht="12.75" customHeight="1">
+    <row r="490" spans="1:26" ht="12.75" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -14196,7 +14597,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" ht="12.75" customHeight="1">
+    <row r="491" spans="1:26" ht="12.75" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -14224,7 +14625,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" ht="12.75" customHeight="1">
+    <row r="492" spans="1:26" ht="12.75" customHeight="1">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -14252,7 +14653,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" ht="12.75" customHeight="1">
+    <row r="493" spans="1:26" ht="12.75" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -14280,7 +14681,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" ht="12.75" customHeight="1">
+    <row r="494" spans="1:26" ht="12.75" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -14308,7 +14709,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" ht="12.75" customHeight="1">
+    <row r="495" spans="1:26" ht="12.75" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -14336,7 +14737,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" ht="12.75" customHeight="1">
+    <row r="496" spans="1:26" ht="12.75" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -14364,7 +14765,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" ht="12.75" customHeight="1">
+    <row r="497" spans="1:26" ht="12.75" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -14392,7 +14793,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" ht="12.75" customHeight="1">
+    <row r="498" spans="1:26" ht="12.75" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14420,7 +14821,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" ht="12.75" customHeight="1">
+    <row r="499" spans="1:26" ht="12.75" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14448,7 +14849,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" ht="12.75" customHeight="1">
+    <row r="500" spans="1:26" ht="12.75" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -14476,7 +14877,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" ht="12.75" customHeight="1">
+    <row r="501" spans="1:26" ht="12.75" customHeight="1">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -14504,7 +14905,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" ht="12.75" customHeight="1">
+    <row r="502" spans="1:26" ht="12.75" customHeight="1">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -14532,7 +14933,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" ht="12.75" customHeight="1">
+    <row r="503" spans="1:26" ht="12.75" customHeight="1">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -14560,7 +14961,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" ht="12.75" customHeight="1">
+    <row r="504" spans="1:26" ht="12.75" customHeight="1">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -14588,7 +14989,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" ht="12.75" customHeight="1">
+    <row r="505" spans="1:26" ht="12.75" customHeight="1">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -14616,7 +15017,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" ht="12.75" customHeight="1">
+    <row r="506" spans="1:26" ht="12.75" customHeight="1">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -14644,7 +15045,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" ht="12.75" customHeight="1">
+    <row r="507" spans="1:26" ht="12.75" customHeight="1">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -14672,7 +15073,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" ht="12.75" customHeight="1">
+    <row r="508" spans="1:26" ht="12.75" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -14700,7 +15101,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" ht="12.75" customHeight="1">
+    <row r="509" spans="1:26" ht="12.75" customHeight="1">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14728,7 +15129,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" ht="12.75" customHeight="1">
+    <row r="510" spans="1:26" ht="12.75" customHeight="1">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -14756,7 +15157,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" ht="12.75" customHeight="1">
+    <row r="511" spans="1:26" ht="12.75" customHeight="1">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -14784,7 +15185,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" ht="12.75" customHeight="1">
+    <row r="512" spans="1:26" ht="12.75" customHeight="1">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -14812,7 +15213,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" ht="12.75" customHeight="1">
+    <row r="513" spans="1:26" ht="12.75" customHeight="1">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -14840,7 +15241,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" ht="12.75" customHeight="1">
+    <row r="514" spans="1:26" ht="12.75" customHeight="1">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -14868,7 +15269,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" ht="12.75" customHeight="1">
+    <row r="515" spans="1:26" ht="12.75" customHeight="1">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -14896,7 +15297,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" ht="12.75" customHeight="1">
+    <row r="516" spans="1:26" ht="12.75" customHeight="1">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -14924,7 +15325,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" ht="12.75" customHeight="1">
+    <row r="517" spans="1:26" ht="12.75" customHeight="1">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -14952,7 +15353,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" ht="12.75" customHeight="1">
+    <row r="518" spans="1:26" ht="12.75" customHeight="1">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -14980,7 +15381,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" ht="12.75" customHeight="1">
+    <row r="519" spans="1:26" ht="12.75" customHeight="1">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -15008,7 +15409,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" ht="12.75" customHeight="1">
+    <row r="520" spans="1:26" ht="12.75" customHeight="1">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -15036,7 +15437,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" ht="12.75" customHeight="1">
+    <row r="521" spans="1:26" ht="12.75" customHeight="1">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -15064,7 +15465,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" ht="12.75" customHeight="1">
+    <row r="522" spans="1:26" ht="12.75" customHeight="1">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -15092,7 +15493,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" ht="12.75" customHeight="1">
+    <row r="523" spans="1:26" ht="12.75" customHeight="1">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -15120,7 +15521,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" ht="12.75" customHeight="1">
+    <row r="524" spans="1:26" ht="12.75" customHeight="1">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -15148,7 +15549,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" ht="12.75" customHeight="1">
+    <row r="525" spans="1:26" ht="12.75" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -15176,7 +15577,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" ht="12.75" customHeight="1">
+    <row r="526" spans="1:26" ht="12.75" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -15204,7 +15605,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" ht="12.75" customHeight="1">
+    <row r="527" spans="1:26" ht="12.75" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -15232,7 +15633,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" ht="12.75" customHeight="1">
+    <row r="528" spans="1:26" ht="12.75" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -15260,7 +15661,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" ht="12.75" customHeight="1">
+    <row r="529" spans="1:26" ht="12.75" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -15288,7 +15689,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" ht="12.75" customHeight="1">
+    <row r="530" spans="1:26" ht="12.75" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -15316,7 +15717,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" ht="12.75" customHeight="1">
+    <row r="531" spans="1:26" ht="12.75" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -15344,7 +15745,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" ht="12.75" customHeight="1">
+    <row r="532" spans="1:26" ht="12.75" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -15372,7 +15773,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" ht="12.75" customHeight="1">
+    <row r="533" spans="1:26" ht="12.75" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -15400,7 +15801,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" ht="12.75" customHeight="1">
+    <row r="534" spans="1:26" ht="12.75" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -15428,7 +15829,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" ht="12.75" customHeight="1">
+    <row r="535" spans="1:26" ht="12.75" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -15456,7 +15857,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" ht="12.75" customHeight="1">
+    <row r="536" spans="1:26" ht="12.75" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -15484,7 +15885,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" ht="12.75" customHeight="1">
+    <row r="537" spans="1:26" ht="12.75" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -15512,7 +15913,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" ht="12.75" customHeight="1">
+    <row r="538" spans="1:26" ht="12.75" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -15540,7 +15941,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" ht="12.75" customHeight="1">
+    <row r="539" spans="1:26" ht="12.75" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -15568,7 +15969,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" ht="12.75" customHeight="1">
+    <row r="540" spans="1:26" ht="12.75" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -15596,7 +15997,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" ht="12.75" customHeight="1">
+    <row r="541" spans="1:26" ht="12.75" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -15624,7 +16025,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" ht="12.75" customHeight="1">
+    <row r="542" spans="1:26" ht="12.75" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -15652,7 +16053,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" ht="12.75" customHeight="1">
+    <row r="543" spans="1:26" ht="12.75" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -15680,7 +16081,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" ht="12.75" customHeight="1">
+    <row r="544" spans="1:26" ht="12.75" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -15708,7 +16109,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" ht="12.75" customHeight="1">
+    <row r="545" spans="1:26" ht="12.75" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -15736,7 +16137,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" ht="12.75" customHeight="1">
+    <row r="546" spans="1:26" ht="12.75" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -15764,7 +16165,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" ht="12.75" customHeight="1">
+    <row r="547" spans="1:26" ht="12.75" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -15792,7 +16193,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" ht="12.75" customHeight="1">
+    <row r="548" spans="1:26" ht="12.75" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -15820,7 +16221,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" ht="12.75" customHeight="1">
+    <row r="549" spans="1:26" ht="12.75" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -15848,7 +16249,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" ht="12.75" customHeight="1">
+    <row r="550" spans="1:26" ht="12.75" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -15876,7 +16277,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" ht="12.75" customHeight="1">
+    <row r="551" spans="1:26" ht="12.75" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -15904,7 +16305,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" ht="12.75" customHeight="1">
+    <row r="552" spans="1:26" ht="12.75" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -15932,7 +16333,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" ht="12.75" customHeight="1">
+    <row r="553" spans="1:26" ht="12.75" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -15960,7 +16361,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" ht="12.75" customHeight="1">
+    <row r="554" spans="1:26" ht="12.75" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -15988,7 +16389,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" ht="12.75" customHeight="1">
+    <row r="555" spans="1:26" ht="12.75" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -16016,7 +16417,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" ht="12.75" customHeight="1">
+    <row r="556" spans="1:26" ht="12.75" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -16044,7 +16445,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" ht="12.75" customHeight="1">
+    <row r="557" spans="1:26" ht="12.75" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -16072,7 +16473,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" ht="12.75" customHeight="1">
+    <row r="558" spans="1:26" ht="12.75" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -16100,7 +16501,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" ht="12.75" customHeight="1">
+    <row r="559" spans="1:26" ht="12.75" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -16128,7 +16529,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" ht="12.75" customHeight="1">
+    <row r="560" spans="1:26" ht="12.75" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -16156,7 +16557,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" ht="12.75" customHeight="1">
+    <row r="561" spans="1:26" ht="12.75" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -16184,7 +16585,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" ht="12.75" customHeight="1">
+    <row r="562" spans="1:26" ht="12.75" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -16212,7 +16613,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" ht="12.75" customHeight="1">
+    <row r="563" spans="1:26" ht="12.75" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -16240,7 +16641,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" ht="12.75" customHeight="1">
+    <row r="564" spans="1:26" ht="12.75" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -16268,7 +16669,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" ht="12.75" customHeight="1">
+    <row r="565" spans="1:26" ht="12.75" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -16296,7 +16697,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" ht="12.75" customHeight="1">
+    <row r="566" spans="1:26" ht="12.75" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -16324,7 +16725,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" ht="12.75" customHeight="1">
+    <row r="567" spans="1:26" ht="12.75" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -16352,7 +16753,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" ht="12.75" customHeight="1">
+    <row r="568" spans="1:26" ht="12.75" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -16380,7 +16781,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" ht="12.75" customHeight="1">
+    <row r="569" spans="1:26" ht="12.75" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -16408,7 +16809,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" ht="12.75" customHeight="1">
+    <row r="570" spans="1:26" ht="12.75" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -16436,7 +16837,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" ht="12.75" customHeight="1">
+    <row r="571" spans="1:26" ht="12.75" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -16464,7 +16865,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" ht="12.75" customHeight="1">
+    <row r="572" spans="1:26" ht="12.75" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -16492,7 +16893,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" ht="12.75" customHeight="1">
+    <row r="573" spans="1:26" ht="12.75" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -16520,7 +16921,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" ht="12.75" customHeight="1">
+    <row r="574" spans="1:26" ht="12.75" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -16548,7 +16949,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" ht="12.75" customHeight="1">
+    <row r="575" spans="1:26" ht="12.75" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -16576,7 +16977,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" ht="12.75" customHeight="1">
+    <row r="576" spans="1:26" ht="12.75" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -16604,7 +17005,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" ht="12.75" customHeight="1">
+    <row r="577" spans="1:26" ht="12.75" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -16632,7 +17033,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" ht="12.75" customHeight="1">
+    <row r="578" spans="1:26" ht="12.75" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -16660,7 +17061,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" ht="12.75" customHeight="1">
+    <row r="579" spans="1:26" ht="12.75" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -16688,7 +17089,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" ht="12.75" customHeight="1">
+    <row r="580" spans="1:26" ht="12.75" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -16716,7 +17117,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" ht="12.75" customHeight="1">
+    <row r="581" spans="1:26" ht="12.75" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -16744,7 +17145,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" ht="12.75" customHeight="1">
+    <row r="582" spans="1:26" ht="12.75" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -16772,7 +17173,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" ht="12.75" customHeight="1">
+    <row r="583" spans="1:26" ht="12.75" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -16800,7 +17201,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" ht="12.75" customHeight="1">
+    <row r="584" spans="1:26" ht="12.75" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -16828,7 +17229,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" ht="12.75" customHeight="1">
+    <row r="585" spans="1:26" ht="12.75" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -16856,7 +17257,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" ht="12.75" customHeight="1">
+    <row r="586" spans="1:26" ht="12.75" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -16884,7 +17285,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" ht="12.75" customHeight="1">
+    <row r="587" spans="1:26" ht="12.75" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -16912,7 +17313,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" ht="12.75" customHeight="1">
+    <row r="588" spans="1:26" ht="12.75" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -16940,7 +17341,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" ht="12.75" customHeight="1">
+    <row r="589" spans="1:26" ht="12.75" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -16968,7 +17369,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" ht="12.75" customHeight="1">
+    <row r="590" spans="1:26" ht="12.75" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -16996,7 +17397,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" ht="12.75" customHeight="1">
+    <row r="591" spans="1:26" ht="12.75" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -17024,7 +17425,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" ht="12.75" customHeight="1">
+    <row r="592" spans="1:26" ht="12.75" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -17052,7 +17453,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" ht="12.75" customHeight="1">
+    <row r="593" spans="1:26" ht="12.75" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -17080,7 +17481,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" ht="12.75" customHeight="1">
+    <row r="594" spans="1:26" ht="12.75" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -17108,7 +17509,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" ht="12.75" customHeight="1">
+    <row r="595" spans="1:26" ht="12.75" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -17136,7 +17537,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" ht="12.75" customHeight="1">
+    <row r="596" spans="1:26" ht="12.75" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -17164,7 +17565,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" ht="12.75" customHeight="1">
+    <row r="597" spans="1:26" ht="12.75" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -17192,7 +17593,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" ht="12.75" customHeight="1">
+    <row r="598" spans="1:26" ht="12.75" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -17220,7 +17621,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" ht="12.75" customHeight="1">
+    <row r="599" spans="1:26" ht="12.75" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -17248,7 +17649,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" ht="12.75" customHeight="1">
+    <row r="600" spans="1:26" ht="12.75" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -17276,7 +17677,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" ht="12.75" customHeight="1">
+    <row r="601" spans="1:26" ht="12.75" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -17304,7 +17705,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" ht="12.75" customHeight="1">
+    <row r="602" spans="1:26" ht="12.75" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -17332,7 +17733,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" ht="12.75" customHeight="1">
+    <row r="603" spans="1:26" ht="12.75" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -17360,7 +17761,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" ht="12.75" customHeight="1">
+    <row r="604" spans="1:26" ht="12.75" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -17388,7 +17789,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" ht="12.75" customHeight="1">
+    <row r="605" spans="1:26" ht="12.75" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -17416,7 +17817,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" ht="12.75" customHeight="1">
+    <row r="606" spans="1:26" ht="12.75" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -17444,7 +17845,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" ht="12.75" customHeight="1">
+    <row r="607" spans="1:26" ht="12.75" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -17472,7 +17873,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" ht="12.75" customHeight="1">
+    <row r="608" spans="1:26" ht="12.75" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -17500,7 +17901,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" ht="12.75" customHeight="1">
+    <row r="609" spans="1:26" ht="12.75" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -17528,7 +17929,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" ht="12.75" customHeight="1">
+    <row r="610" spans="1:26" ht="12.75" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -17556,7 +17957,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" ht="12.75" customHeight="1">
+    <row r="611" spans="1:26" ht="12.75" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -17584,7 +17985,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" ht="12.75" customHeight="1">
+    <row r="612" spans="1:26" ht="12.75" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -17612,7 +18013,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" ht="12.75" customHeight="1">
+    <row r="613" spans="1:26" ht="12.75" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -17640,7 +18041,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" ht="12.75" customHeight="1">
+    <row r="614" spans="1:26" ht="12.75" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -17668,7 +18069,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" ht="12.75" customHeight="1">
+    <row r="615" spans="1:26" ht="12.75" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -17696,7 +18097,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" ht="12.75" customHeight="1">
+    <row r="616" spans="1:26" ht="12.75" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -17724,7 +18125,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" ht="12.75" customHeight="1">
+    <row r="617" spans="1:26" ht="12.75" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -17752,7 +18153,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" ht="12.75" customHeight="1">
+    <row r="618" spans="1:26" ht="12.75" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -17780,7 +18181,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" ht="12.75" customHeight="1">
+    <row r="619" spans="1:26" ht="12.75" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -17808,7 +18209,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" ht="12.75" customHeight="1">
+    <row r="620" spans="1:26" ht="12.75" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -17836,7 +18237,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" ht="12.75" customHeight="1">
+    <row r="621" spans="1:26" ht="12.75" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -17864,7 +18265,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" ht="12.75" customHeight="1">
+    <row r="622" spans="1:26" ht="12.75" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -17892,7 +18293,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" ht="12.75" customHeight="1">
+    <row r="623" spans="1:26" ht="12.75" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -17920,7 +18321,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" ht="12.75" customHeight="1">
+    <row r="624" spans="1:26" ht="12.75" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -17948,7 +18349,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" ht="12.75" customHeight="1">
+    <row r="625" spans="1:26" ht="12.75" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -17976,7 +18377,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" ht="12.75" customHeight="1">
+    <row r="626" spans="1:26" ht="12.75" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -18004,7 +18405,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" ht="12.75" customHeight="1">
+    <row r="627" spans="1:26" ht="12.75" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -18032,7 +18433,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" ht="12.75" customHeight="1">
+    <row r="628" spans="1:26" ht="12.75" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -18060,7 +18461,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" ht="12.75" customHeight="1">
+    <row r="629" spans="1:26" ht="12.75" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -18088,7 +18489,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" ht="12.75" customHeight="1">
+    <row r="630" spans="1:26" ht="12.75" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -18116,7 +18517,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" ht="12.75" customHeight="1">
+    <row r="631" spans="1:26" ht="12.75" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -18144,7 +18545,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" ht="12.75" customHeight="1">
+    <row r="632" spans="1:26" ht="12.75" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -18172,7 +18573,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" ht="12.75" customHeight="1">
+    <row r="633" spans="1:26" ht="12.75" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -18200,7 +18601,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" ht="12.75" customHeight="1">
+    <row r="634" spans="1:26" ht="12.75" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -18228,7 +18629,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" ht="12.75" customHeight="1">
+    <row r="635" spans="1:26" ht="12.75" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -18256,7 +18657,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" ht="12.75" customHeight="1">
+    <row r="636" spans="1:26" ht="12.75" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -18284,7 +18685,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" ht="12.75" customHeight="1">
+    <row r="637" spans="1:26" ht="12.75" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -18312,7 +18713,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" ht="12.75" customHeight="1">
+    <row r="638" spans="1:26" ht="12.75" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -18340,7 +18741,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" ht="12.75" customHeight="1">
+    <row r="639" spans="1:26" ht="12.75" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -18368,7 +18769,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" ht="12.75" customHeight="1">
+    <row r="640" spans="1:26" ht="12.75" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -18396,7 +18797,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" ht="12.75" customHeight="1">
+    <row r="641" spans="1:26" ht="12.75" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -18424,7 +18825,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" ht="12.75" customHeight="1">
+    <row r="642" spans="1:26" ht="12.75" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -18452,7 +18853,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" ht="12.75" customHeight="1">
+    <row r="643" spans="1:26" ht="12.75" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -18480,7 +18881,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" ht="12.75" customHeight="1">
+    <row r="644" spans="1:26" ht="12.75" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -18508,7 +18909,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" ht="12.75" customHeight="1">
+    <row r="645" spans="1:26" ht="12.75" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -18536,7 +18937,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" ht="12.75" customHeight="1">
+    <row r="646" spans="1:26" ht="12.75" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -18564,7 +18965,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" ht="12.75" customHeight="1">
+    <row r="647" spans="1:26" ht="12.75" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -18592,7 +18993,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" ht="12.75" customHeight="1">
+    <row r="648" spans="1:26" ht="12.75" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -18620,7 +19021,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" ht="12.75" customHeight="1">
+    <row r="649" spans="1:26" ht="12.75" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -18648,7 +19049,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" ht="12.75" customHeight="1">
+    <row r="650" spans="1:26" ht="12.75" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -18676,7 +19077,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" ht="12.75" customHeight="1">
+    <row r="651" spans="1:26" ht="12.75" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -18704,7 +19105,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" ht="12.75" customHeight="1">
+    <row r="652" spans="1:26" ht="12.75" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -18732,7 +19133,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" ht="12.75" customHeight="1">
+    <row r="653" spans="1:26" ht="12.75" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -18760,7 +19161,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" ht="12.75" customHeight="1">
+    <row r="654" spans="1:26" ht="12.75" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -18788,7 +19189,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" ht="12.75" customHeight="1">
+    <row r="655" spans="1:26" ht="12.75" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -18816,7 +19217,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" ht="12.75" customHeight="1">
+    <row r="656" spans="1:26" ht="12.75" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -18844,7 +19245,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" ht="12.75" customHeight="1">
+    <row r="657" spans="1:26" ht="12.75" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -18872,7 +19273,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" ht="12.75" customHeight="1">
+    <row r="658" spans="1:26" ht="12.75" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -18900,7 +19301,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" ht="12.75" customHeight="1">
+    <row r="659" spans="1:26" ht="12.75" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -18928,7 +19329,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" ht="12.75" customHeight="1">
+    <row r="660" spans="1:26" ht="12.75" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -18956,7 +19357,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" ht="12.75" customHeight="1">
+    <row r="661" spans="1:26" ht="12.75" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -18984,7 +19385,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" ht="12.75" customHeight="1">
+    <row r="662" spans="1:26" ht="12.75" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -19012,7 +19413,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" ht="12.75" customHeight="1">
+    <row r="663" spans="1:26" ht="12.75" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -19040,7 +19441,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" ht="12.75" customHeight="1">
+    <row r="664" spans="1:26" ht="12.75" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -19068,7 +19469,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" ht="12.75" customHeight="1">
+    <row r="665" spans="1:26" ht="12.75" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -19096,7 +19497,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" ht="12.75" customHeight="1">
+    <row r="666" spans="1:26" ht="12.75" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -19124,7 +19525,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" ht="12.75" customHeight="1">
+    <row r="667" spans="1:26" ht="12.75" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -19152,7 +19553,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" ht="12.75" customHeight="1">
+    <row r="668" spans="1:26" ht="12.75" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -19180,7 +19581,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" ht="12.75" customHeight="1">
+    <row r="669" spans="1:26" ht="12.75" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -19208,7 +19609,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" ht="12.75" customHeight="1">
+    <row r="670" spans="1:26" ht="12.75" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -19236,7 +19637,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" ht="12.75" customHeight="1">
+    <row r="671" spans="1:26" ht="12.75" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -19264,7 +19665,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" ht="12.75" customHeight="1">
+    <row r="672" spans="1:26" ht="12.75" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -19292,7 +19693,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" ht="12.75" customHeight="1">
+    <row r="673" spans="1:26" ht="12.75" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -19320,7 +19721,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" ht="12.75" customHeight="1">
+    <row r="674" spans="1:26" ht="12.75" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -19348,7 +19749,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" ht="12.75" customHeight="1">
+    <row r="675" spans="1:26" ht="12.75" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -19376,7 +19777,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" ht="12.75" customHeight="1">
+    <row r="676" spans="1:26" ht="12.75" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -19404,7 +19805,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" ht="12.75" customHeight="1">
+    <row r="677" spans="1:26" ht="12.75" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -19432,7 +19833,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" ht="12.75" customHeight="1">
+    <row r="678" spans="1:26" ht="12.75" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -19460,7 +19861,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" ht="12.75" customHeight="1">
+    <row r="679" spans="1:26" ht="12.75" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -19488,7 +19889,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" ht="12.75" customHeight="1">
+    <row r="680" spans="1:26" ht="12.75" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -19516,7 +19917,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" ht="12.75" customHeight="1">
+    <row r="681" spans="1:26" ht="12.75" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -19544,7 +19945,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" ht="12.75" customHeight="1">
+    <row r="682" spans="1:26" ht="12.75" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -19572,7 +19973,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" ht="12.75" customHeight="1">
+    <row r="683" spans="1:26" ht="12.75" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -19600,7 +20001,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" ht="12.75" customHeight="1">
+    <row r="684" spans="1:26" ht="12.75" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -19628,7 +20029,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" ht="12.75" customHeight="1">
+    <row r="685" spans="1:26" ht="12.75" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -19656,7 +20057,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" ht="12.75" customHeight="1">
+    <row r="686" spans="1:26" ht="12.75" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -19684,7 +20085,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" ht="12.75" customHeight="1">
+    <row r="687" spans="1:26" ht="12.75" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -19712,7 +20113,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" ht="12.75" customHeight="1">
+    <row r="688" spans="1:26" ht="12.75" customHeight="1">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -19740,7 +20141,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" ht="12.75" customHeight="1">
+    <row r="689" spans="1:26" ht="12.75" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -19768,7 +20169,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" ht="12.75" customHeight="1">
+    <row r="690" spans="1:26" ht="12.75" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -19796,7 +20197,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" ht="12.75" customHeight="1">
+    <row r="691" spans="1:26" ht="12.75" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -19824,7 +20225,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" ht="12.75" customHeight="1">
+    <row r="692" spans="1:26" ht="12.75" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -19852,7 +20253,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" ht="12.75" customHeight="1">
+    <row r="693" spans="1:26" ht="12.75" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -19880,7 +20281,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" ht="12.75" customHeight="1">
+    <row r="694" spans="1:26" ht="12.75" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -19908,7 +20309,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" ht="12.75" customHeight="1">
+    <row r="695" spans="1:26" ht="12.75" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -19936,7 +20337,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" ht="12.75" customHeight="1">
+    <row r="696" spans="1:26" ht="12.75" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -19964,7 +20365,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" ht="12.75" customHeight="1">
+    <row r="697" spans="1:26" ht="12.75" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -19992,7 +20393,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" ht="12.75" customHeight="1">
+    <row r="698" spans="1:26" ht="12.75" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -20020,7 +20421,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" ht="12.75" customHeight="1">
+    <row r="699" spans="1:26" ht="12.75" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -20048,7 +20449,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" ht="12.75" customHeight="1">
+    <row r="700" spans="1:26" ht="12.75" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -20076,7 +20477,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" ht="12.75" customHeight="1">
+    <row r="701" spans="1:26" ht="12.75" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -20104,7 +20505,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" ht="12.75" customHeight="1">
+    <row r="702" spans="1:26" ht="12.75" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -20132,7 +20533,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" ht="12.75" customHeight="1">
+    <row r="703" spans="1:26" ht="12.75" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -20160,7 +20561,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" ht="12.75" customHeight="1">
+    <row r="704" spans="1:26" ht="12.75" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -20188,7 +20589,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" ht="12.75" customHeight="1">
+    <row r="705" spans="1:26" ht="12.75" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -20216,7 +20617,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" ht="12.75" customHeight="1">
+    <row r="706" spans="1:26" ht="12.75" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -20244,7 +20645,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" ht="12.75" customHeight="1">
+    <row r="707" spans="1:26" ht="12.75" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -20272,7 +20673,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" ht="12.75" customHeight="1">
+    <row r="708" spans="1:26" ht="12.75" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -20300,7 +20701,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" ht="12.75" customHeight="1">
+    <row r="709" spans="1:26" ht="12.75" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -20328,7 +20729,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" ht="12.75" customHeight="1">
+    <row r="710" spans="1:26" ht="12.75" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -20356,7 +20757,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" ht="12.75" customHeight="1">
+    <row r="711" spans="1:26" ht="12.75" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -20384,7 +20785,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" ht="12.75" customHeight="1">
+    <row r="712" spans="1:26" ht="12.75" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -20412,7 +20813,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" ht="12.75" customHeight="1">
+    <row r="713" spans="1:26" ht="12.75" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -20440,7 +20841,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" ht="12.75" customHeight="1">
+    <row r="714" spans="1:26" ht="12.75" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -20468,7 +20869,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" ht="12.75" customHeight="1">
+    <row r="715" spans="1:26" ht="12.75" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -20496,7 +20897,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" ht="12.75" customHeight="1">
+    <row r="716" spans="1:26" ht="12.75" customHeight="1">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -20524,7 +20925,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" ht="12.75" customHeight="1">
+    <row r="717" spans="1:26" ht="12.75" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -20552,7 +20953,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" ht="12.75" customHeight="1">
+    <row r="718" spans="1:26" ht="12.75" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -20580,7 +20981,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" ht="12.75" customHeight="1">
+    <row r="719" spans="1:26" ht="12.75" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -20608,7 +21009,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" ht="12.75" customHeight="1">
+    <row r="720" spans="1:26" ht="12.75" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -20636,7 +21037,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" ht="12.75" customHeight="1">
+    <row r="721" spans="1:26" ht="12.75" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -20664,7 +21065,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" ht="12.75" customHeight="1">
+    <row r="722" spans="1:26" ht="12.75" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -20692,7 +21093,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" ht="12.75" customHeight="1">
+    <row r="723" spans="1:26" ht="12.75" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -20720,7 +21121,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" ht="12.75" customHeight="1">
+    <row r="724" spans="1:26" ht="12.75" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -20748,7 +21149,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" ht="12.75" customHeight="1">
+    <row r="725" spans="1:26" ht="12.75" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -20776,7 +21177,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" ht="12.75" customHeight="1">
+    <row r="726" spans="1:26" ht="12.75" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -20804,7 +21205,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" ht="12.75" customHeight="1">
+    <row r="727" spans="1:26" ht="12.75" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -20832,7 +21233,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" ht="12.75" customHeight="1">
+    <row r="728" spans="1:26" ht="12.75" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -20860,7 +21261,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" ht="12.75" customHeight="1">
+    <row r="729" spans="1:26" ht="12.75" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -20888,7 +21289,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" ht="12.75" customHeight="1">
+    <row r="730" spans="1:26" ht="12.75" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -20916,7 +21317,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" ht="12.75" customHeight="1">
+    <row r="731" spans="1:26" ht="12.75" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -20944,7 +21345,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" ht="12.75" customHeight="1">
+    <row r="732" spans="1:26" ht="12.75" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -20972,7 +21373,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" ht="12.75" customHeight="1">
+    <row r="733" spans="1:26" ht="12.75" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -21000,7 +21401,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" ht="12.75" customHeight="1">
+    <row r="734" spans="1:26" ht="12.75" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -21028,7 +21429,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" ht="12.75" customHeight="1">
+    <row r="735" spans="1:26" ht="12.75" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -21056,7 +21457,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" ht="12.75" customHeight="1">
+    <row r="736" spans="1:26" ht="12.75" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -21084,7 +21485,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" ht="12.75" customHeight="1">
+    <row r="737" spans="1:26" ht="12.75" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -21112,7 +21513,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" ht="12.75" customHeight="1">
+    <row r="738" spans="1:26" ht="12.75" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -21140,7 +21541,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" ht="12.75" customHeight="1">
+    <row r="739" spans="1:26" ht="12.75" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -21168,7 +21569,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" ht="12.75" customHeight="1">
+    <row r="740" spans="1:26" ht="12.75" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -21196,7 +21597,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" ht="12.75" customHeight="1">
+    <row r="741" spans="1:26" ht="12.75" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -21224,7 +21625,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" ht="12.75" customHeight="1">
+    <row r="742" spans="1:26" ht="12.75" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -21252,7 +21653,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" ht="12.75" customHeight="1">
+    <row r="743" spans="1:26" ht="12.75" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -21280,7 +21681,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" ht="12.75" customHeight="1">
+    <row r="744" spans="1:26" ht="12.75" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -21308,7 +21709,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" ht="12.75" customHeight="1">
+    <row r="745" spans="1:26" ht="12.75" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -21336,7 +21737,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" ht="12.75" customHeight="1">
+    <row r="746" spans="1:26" ht="12.75" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -21364,7 +21765,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" ht="12.75" customHeight="1">
+    <row r="747" spans="1:26" ht="12.75" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -21392,7 +21793,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" ht="12.75" customHeight="1">
+    <row r="748" spans="1:26" ht="12.75" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -21420,7 +21821,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" ht="12.75" customHeight="1">
+    <row r="749" spans="1:26" ht="12.75" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -21448,7 +21849,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" ht="12.75" customHeight="1">
+    <row r="750" spans="1:26" ht="12.75" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -21476,7 +21877,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" ht="12.75" customHeight="1">
+    <row r="751" spans="1:26" ht="12.75" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -21504,7 +21905,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" ht="12.75" customHeight="1">
+    <row r="752" spans="1:26" ht="12.75" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -21532,7 +21933,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" ht="12.75" customHeight="1">
+    <row r="753" spans="1:26" ht="12.75" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -21560,7 +21961,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" ht="12.75" customHeight="1">
+    <row r="754" spans="1:26" ht="12.75" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -21588,7 +21989,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" ht="12.75" customHeight="1">
+    <row r="755" spans="1:26" ht="12.75" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -21616,7 +22017,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" ht="12.75" customHeight="1">
+    <row r="756" spans="1:26" ht="12.75" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -21644,7 +22045,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" ht="12.75" customHeight="1">
+    <row r="757" spans="1:26" ht="12.75" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -21672,7 +22073,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" ht="12.75" customHeight="1">
+    <row r="758" spans="1:26" ht="12.75" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -21700,7 +22101,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" ht="12.75" customHeight="1">
+    <row r="759" spans="1:26" ht="12.75" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -21728,7 +22129,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" ht="12.75" customHeight="1">
+    <row r="760" spans="1:26" ht="12.75" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -21756,7 +22157,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" ht="12.75" customHeight="1">
+    <row r="761" spans="1:26" ht="12.75" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -21784,7 +22185,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" ht="12.75" customHeight="1">
+    <row r="762" spans="1:26" ht="12.75" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -21812,7 +22213,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" ht="12.75" customHeight="1">
+    <row r="763" spans="1:26" ht="12.75" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -21840,7 +22241,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" ht="12.75" customHeight="1">
+    <row r="764" spans="1:26" ht="12.75" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -21868,7 +22269,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" ht="12.75" customHeight="1">
+    <row r="765" spans="1:26" ht="12.75" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -21896,7 +22297,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" ht="12.75" customHeight="1">
+    <row r="766" spans="1:26" ht="12.75" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -21924,7 +22325,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" ht="12.75" customHeight="1">
+    <row r="767" spans="1:26" ht="12.75" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -21952,7 +22353,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" ht="12.75" customHeight="1">
+    <row r="768" spans="1:26" ht="12.75" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -21980,7 +22381,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" ht="12.75" customHeight="1">
+    <row r="769" spans="1:26" ht="12.75" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -22008,7 +22409,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" ht="12.75" customHeight="1">
+    <row r="770" spans="1:26" ht="12.75" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -22036,7 +22437,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" ht="12.75" customHeight="1">
+    <row r="771" spans="1:26" ht="12.75" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -22064,7 +22465,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" ht="12.75" customHeight="1">
+    <row r="772" spans="1:26" ht="12.75" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -22092,7 +22493,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" ht="12.75" customHeight="1">
+    <row r="773" spans="1:26" ht="12.75" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -22120,7 +22521,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" ht="12.75" customHeight="1">
+    <row r="774" spans="1:26" ht="12.75" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -22148,7 +22549,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" ht="12.75" customHeight="1">
+    <row r="775" spans="1:26" ht="12.75" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -22176,7 +22577,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" ht="12.75" customHeight="1">
+    <row r="776" spans="1:26" ht="12.75" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -22204,7 +22605,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" ht="12.75" customHeight="1">
+    <row r="777" spans="1:26" ht="12.75" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -22232,7 +22633,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" ht="12.75" customHeight="1">
+    <row r="778" spans="1:26" ht="12.75" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -22260,7 +22661,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" ht="12.75" customHeight="1">
+    <row r="779" spans="1:26" ht="12.75" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -22288,7 +22689,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" ht="12.75" customHeight="1">
+    <row r="780" spans="1:26" ht="12.75" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -22316,7 +22717,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" ht="12.75" customHeight="1">
+    <row r="781" spans="1:26" ht="12.75" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -22344,7 +22745,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" ht="12.75" customHeight="1">
+    <row r="782" spans="1:26" ht="12.75" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -22372,7 +22773,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" ht="12.75" customHeight="1">
+    <row r="783" spans="1:26" ht="12.75" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -22400,7 +22801,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" ht="12.75" customHeight="1">
+    <row r="784" spans="1:26" ht="12.75" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -22428,7 +22829,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" ht="12.75" customHeight="1">
+    <row r="785" spans="1:26" ht="12.75" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -22456,7 +22857,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" ht="12.75" customHeight="1">
+    <row r="786" spans="1:26" ht="12.75" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -22484,7 +22885,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" ht="12.75" customHeight="1">
+    <row r="787" spans="1:26" ht="12.75" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -22512,7 +22913,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" ht="12.75" customHeight="1">
+    <row r="788" spans="1:26" ht="12.75" customHeight="1">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -22540,7 +22941,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" ht="12.75" customHeight="1">
+    <row r="789" spans="1:26" ht="12.75" customHeight="1">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -22568,7 +22969,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" ht="12.75" customHeight="1">
+    <row r="790" spans="1:26" ht="12.75" customHeight="1">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -22596,7 +22997,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" ht="12.75" customHeight="1">
+    <row r="791" spans="1:26" ht="12.75" customHeight="1">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -22624,7 +23025,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" ht="12.75" customHeight="1">
+    <row r="792" spans="1:26" ht="12.75" customHeight="1">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -22652,7 +23053,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" ht="12.75" customHeight="1">
+    <row r="793" spans="1:26" ht="12.75" customHeight="1">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -22680,7 +23081,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" ht="12.75" customHeight="1">
+    <row r="794" spans="1:26" ht="12.75" customHeight="1">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -22708,7 +23109,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" ht="12.75" customHeight="1">
+    <row r="795" spans="1:26" ht="12.75" customHeight="1">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -22736,7 +23137,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" ht="12.75" customHeight="1">
+    <row r="796" spans="1:26" ht="12.75" customHeight="1">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -22764,7 +23165,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" ht="12.75" customHeight="1">
+    <row r="797" spans="1:26" ht="12.75" customHeight="1">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -22792,7 +23193,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" ht="12.75" customHeight="1">
+    <row r="798" spans="1:26" ht="12.75" customHeight="1">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -22820,7 +23221,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" ht="12.75" customHeight="1">
+    <row r="799" spans="1:26" ht="12.75" customHeight="1">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -22848,7 +23249,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" ht="12.75" customHeight="1">
+    <row r="800" spans="1:26" ht="12.75" customHeight="1">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -22876,7 +23277,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" ht="12.75" customHeight="1">
+    <row r="801" spans="1:26" ht="12.75" customHeight="1">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -22904,7 +23305,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" ht="12.75" customHeight="1">
+    <row r="802" spans="1:26" ht="12.75" customHeight="1">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -22932,7 +23333,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" ht="12.75" customHeight="1">
+    <row r="803" spans="1:26" ht="12.75" customHeight="1">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -22960,7 +23361,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" ht="12.75" customHeight="1">
+    <row r="804" spans="1:26" ht="12.75" customHeight="1">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -22988,7 +23389,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" ht="12.75" customHeight="1">
+    <row r="805" spans="1:26" ht="12.75" customHeight="1">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -23016,7 +23417,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" ht="12.75" customHeight="1">
+    <row r="806" spans="1:26" ht="12.75" customHeight="1">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -23044,7 +23445,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" ht="12.75" customHeight="1">
+    <row r="807" spans="1:26" ht="12.75" customHeight="1">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -23072,7 +23473,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" ht="12.75" customHeight="1">
+    <row r="808" spans="1:26" ht="12.75" customHeight="1">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -23100,7 +23501,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" ht="12.75" customHeight="1">
+    <row r="809" spans="1:26" ht="12.75" customHeight="1">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -23128,7 +23529,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" ht="12.75" customHeight="1">
+    <row r="810" spans="1:26" ht="12.75" customHeight="1">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -23156,7 +23557,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" ht="12.75" customHeight="1">
+    <row r="811" spans="1:26" ht="12.75" customHeight="1">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -23184,7 +23585,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" ht="12.75" customHeight="1">
+    <row r="812" spans="1:26" ht="12.75" customHeight="1">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -23212,7 +23613,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" ht="12.75" customHeight="1">
+    <row r="813" spans="1:26" ht="12.75" customHeight="1">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -23240,7 +23641,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" ht="12.75" customHeight="1">
+    <row r="814" spans="1:26" ht="12.75" customHeight="1">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -23268,7 +23669,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" ht="12.75" customHeight="1">
+    <row r="815" spans="1:26" ht="12.75" customHeight="1">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -23296,7 +23697,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" ht="12.75" customHeight="1">
+    <row r="816" spans="1:26" ht="12.75" customHeight="1">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -23324,7 +23725,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" ht="12.75" customHeight="1">
+    <row r="817" spans="1:26" ht="12.75" customHeight="1">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -23352,7 +23753,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" ht="12.75" customHeight="1">
+    <row r="818" spans="1:26" ht="12.75" customHeight="1">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -23380,7 +23781,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" ht="12.75" customHeight="1">
+    <row r="819" spans="1:26" ht="12.75" customHeight="1">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -23408,7 +23809,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" ht="12.75" customHeight="1">
+    <row r="820" spans="1:26" ht="12.75" customHeight="1">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -23436,7 +23837,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" ht="12.75" customHeight="1">
+    <row r="821" spans="1:26" ht="12.75" customHeight="1">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -23464,7 +23865,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" ht="12.75" customHeight="1">
+    <row r="822" spans="1:26" ht="12.75" customHeight="1">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -23492,7 +23893,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" ht="12.75" customHeight="1">
+    <row r="823" spans="1:26" ht="12.75" customHeight="1">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -23520,7 +23921,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" ht="12.75" customHeight="1">
+    <row r="824" spans="1:26" ht="12.75" customHeight="1">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -23548,7 +23949,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" ht="12.75" customHeight="1">
+    <row r="825" spans="1:26" ht="12.75" customHeight="1">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -23576,7 +23977,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" ht="12.75" customHeight="1">
+    <row r="826" spans="1:26" ht="12.75" customHeight="1">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -23604,7 +24005,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" ht="12.75" customHeight="1">
+    <row r="827" spans="1:26" ht="12.75" customHeight="1">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -23632,7 +24033,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" ht="12.75" customHeight="1">
+    <row r="828" spans="1:26" ht="12.75" customHeight="1">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -23660,7 +24061,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" ht="12.75" customHeight="1">
+    <row r="829" spans="1:26" ht="12.75" customHeight="1">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -23688,7 +24089,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" ht="12.75" customHeight="1">
+    <row r="830" spans="1:26" ht="12.75" customHeight="1">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -23716,7 +24117,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" ht="12.75" customHeight="1">
+    <row r="831" spans="1:26" ht="12.75" customHeight="1">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -23744,7 +24145,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" ht="12.75" customHeight="1">
+    <row r="832" spans="1:26" ht="12.75" customHeight="1">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -23772,7 +24173,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" ht="12.75" customHeight="1">
+    <row r="833" spans="1:26" ht="12.75" customHeight="1">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -23800,7 +24201,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" ht="12.75" customHeight="1">
+    <row r="834" spans="1:26" ht="12.75" customHeight="1">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -23828,7 +24229,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" ht="12.75" customHeight="1">
+    <row r="835" spans="1:26" ht="12.75" customHeight="1">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -23856,7 +24257,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" ht="12.75" customHeight="1">
+    <row r="836" spans="1:26" ht="12.75" customHeight="1">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -23884,7 +24285,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" ht="12.75" customHeight="1">
+    <row r="837" spans="1:26" ht="12.75" customHeight="1">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -23912,7 +24313,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" ht="12.75" customHeight="1">
+    <row r="838" spans="1:26" ht="12.75" customHeight="1">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -23940,7 +24341,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" ht="12.75" customHeight="1">
+    <row r="839" spans="1:26" ht="12.75" customHeight="1">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -23968,7 +24369,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" ht="12.75" customHeight="1">
+    <row r="840" spans="1:26" ht="12.75" customHeight="1">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -23996,7 +24397,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" ht="12.75" customHeight="1">
+    <row r="841" spans="1:26" ht="12.75" customHeight="1">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -24024,7 +24425,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" ht="12.75" customHeight="1">
+    <row r="842" spans="1:26" ht="12.75" customHeight="1">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -24052,7 +24453,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" ht="12.75" customHeight="1">
+    <row r="843" spans="1:26" ht="12.75" customHeight="1">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -24080,7 +24481,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" ht="12.75" customHeight="1">
+    <row r="844" spans="1:26" ht="12.75" customHeight="1">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -24108,7 +24509,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" ht="12.75" customHeight="1">
+    <row r="845" spans="1:26" ht="12.75" customHeight="1">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -24136,7 +24537,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" ht="12.75" customHeight="1">
+    <row r="846" spans="1:26" ht="12.75" customHeight="1">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -24164,7 +24565,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" ht="12.75" customHeight="1">
+    <row r="847" spans="1:26" ht="12.75" customHeight="1">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -24192,7 +24593,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" ht="12.75" customHeight="1">
+    <row r="848" spans="1:26" ht="12.75" customHeight="1">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -24220,7 +24621,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" ht="12.75" customHeight="1">
+    <row r="849" spans="1:26" ht="12.75" customHeight="1">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -24248,7 +24649,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" ht="12.75" customHeight="1">
+    <row r="850" spans="1:26" ht="12.75" customHeight="1">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -24276,7 +24677,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" ht="12.75" customHeight="1">
+    <row r="851" spans="1:26" ht="12.75" customHeight="1">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -24304,7 +24705,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" ht="12.75" customHeight="1">
+    <row r="852" spans="1:26" ht="12.75" customHeight="1">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -24332,7 +24733,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" ht="12.75" customHeight="1">
+    <row r="853" spans="1:26" ht="12.75" customHeight="1">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -24360,7 +24761,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" ht="12.75" customHeight="1">
+    <row r="854" spans="1:26" ht="12.75" customHeight="1">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -24388,7 +24789,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" ht="12.75" customHeight="1">
+    <row r="855" spans="1:26" ht="12.75" customHeight="1">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -24416,7 +24817,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" ht="12.75" customHeight="1">
+    <row r="856" spans="1:26" ht="12.75" customHeight="1">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -24444,7 +24845,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" ht="12.75" customHeight="1">
+    <row r="857" spans="1:26" ht="12.75" customHeight="1">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -24472,7 +24873,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" ht="12.75" customHeight="1">
+    <row r="858" spans="1:26" ht="12.75" customHeight="1">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -24500,7 +24901,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" ht="12.75" customHeight="1">
+    <row r="859" spans="1:26" ht="12.75" customHeight="1">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -24528,7 +24929,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" ht="12.75" customHeight="1">
+    <row r="860" spans="1:26" ht="12.75" customHeight="1">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -24556,7 +24957,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" ht="12.75" customHeight="1">
+    <row r="861" spans="1:26" ht="12.75" customHeight="1">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -24584,7 +24985,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" ht="12.75" customHeight="1">
+    <row r="862" spans="1:26" ht="12.75" customHeight="1">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -24612,7 +25013,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" ht="12.75" customHeight="1">
+    <row r="863" spans="1:26" ht="12.75" customHeight="1">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -24640,7 +25041,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" ht="12.75" customHeight="1">
+    <row r="864" spans="1:26" ht="12.75" customHeight="1">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -24668,7 +25069,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" ht="12.75" customHeight="1">
+    <row r="865" spans="1:26" ht="12.75" customHeight="1">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -24696,7 +25097,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" ht="12.75" customHeight="1">
+    <row r="866" spans="1:26" ht="12.75" customHeight="1">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -24724,7 +25125,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" ht="12.75" customHeight="1">
+    <row r="867" spans="1:26" ht="12.75" customHeight="1">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -24752,7 +25153,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" ht="12.75" customHeight="1">
+    <row r="868" spans="1:26" ht="12.75" customHeight="1">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -24780,7 +25181,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" ht="12.75" customHeight="1">
+    <row r="869" spans="1:26" ht="12.75" customHeight="1">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -24808,7 +25209,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" ht="12.75" customHeight="1">
+    <row r="870" spans="1:26" ht="12.75" customHeight="1">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -24836,7 +25237,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" ht="12.75" customHeight="1">
+    <row r="871" spans="1:26" ht="12.75" customHeight="1">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -24864,7 +25265,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" ht="12.75" customHeight="1">
+    <row r="872" spans="1:26" ht="12.75" customHeight="1">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -24892,7 +25293,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" ht="12.75" customHeight="1">
+    <row r="873" spans="1:26" ht="12.75" customHeight="1">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -24920,7 +25321,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" ht="12.75" customHeight="1">
+    <row r="874" spans="1:26" ht="12.75" customHeight="1">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -24948,7 +25349,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" ht="12.75" customHeight="1">
+    <row r="875" spans="1:26" ht="12.75" customHeight="1">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -24976,7 +25377,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" ht="12.75" customHeight="1">
+    <row r="876" spans="1:26" ht="12.75" customHeight="1">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -25004,7 +25405,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" ht="12.75" customHeight="1">
+    <row r="877" spans="1:26" ht="12.75" customHeight="1">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -25032,7 +25433,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" ht="12.75" customHeight="1">
+    <row r="878" spans="1:26" ht="12.75" customHeight="1">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -25060,7 +25461,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" ht="12.75" customHeight="1">
+    <row r="879" spans="1:26" ht="12.75" customHeight="1">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -25088,7 +25489,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" ht="12.75" customHeight="1">
+    <row r="880" spans="1:26" ht="12.75" customHeight="1">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -25116,7 +25517,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" ht="12.75" customHeight="1">
+    <row r="881" spans="1:26" ht="12.75" customHeight="1">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -25144,7 +25545,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" ht="12.75" customHeight="1">
+    <row r="882" spans="1:26" ht="12.75" customHeight="1">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -25172,7 +25573,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" ht="12.75" customHeight="1">
+    <row r="883" spans="1:26" ht="12.75" customHeight="1">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -25200,7 +25601,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" ht="12.75" customHeight="1">
+    <row r="884" spans="1:26" ht="12.75" customHeight="1">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -25228,7 +25629,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" ht="12.75" customHeight="1">
+    <row r="885" spans="1:26" ht="12.75" customHeight="1">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -25256,7 +25657,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" ht="12.75" customHeight="1">
+    <row r="886" spans="1:26" ht="12.75" customHeight="1">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -25284,7 +25685,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" ht="12.75" customHeight="1">
+    <row r="887" spans="1:26" ht="12.75" customHeight="1">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -25312,7 +25713,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" ht="12.75" customHeight="1">
+    <row r="888" spans="1:26" ht="12.75" customHeight="1">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -25340,7 +25741,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" ht="12.75" customHeight="1">
+    <row r="889" spans="1:26" ht="12.75" customHeight="1">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -25368,7 +25769,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" ht="12.75" customHeight="1">
+    <row r="890" spans="1:26" ht="12.75" customHeight="1">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -25396,7 +25797,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" ht="12.75" customHeight="1">
+    <row r="891" spans="1:26" ht="12.75" customHeight="1">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -25424,7 +25825,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" ht="12.75" customHeight="1">
+    <row r="892" spans="1:26" ht="12.75" customHeight="1">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -25452,7 +25853,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" ht="12.75" customHeight="1">
+    <row r="893" spans="1:26" ht="12.75" customHeight="1">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -25480,7 +25881,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" ht="12.75" customHeight="1">
+    <row r="894" spans="1:26" ht="12.75" customHeight="1">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -25508,7 +25909,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" ht="12.75" customHeight="1">
+    <row r="895" spans="1:26" ht="12.75" customHeight="1">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -25536,7 +25937,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" ht="12.75" customHeight="1">
+    <row r="896" spans="1:26" ht="12.75" customHeight="1">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -25564,7 +25965,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" ht="12.75" customHeight="1">
+    <row r="897" spans="1:26" ht="12.75" customHeight="1">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -25592,7 +25993,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" ht="12.75" customHeight="1">
+    <row r="898" spans="1:26" ht="12.75" customHeight="1">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -25620,7 +26021,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" ht="12.75" customHeight="1">
+    <row r="899" spans="1:26" ht="12.75" customHeight="1">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -25648,7 +26049,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" ht="12.75" customHeight="1">
+    <row r="900" spans="1:26" ht="12.75" customHeight="1">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -25676,7 +26077,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" ht="12.75" customHeight="1">
+    <row r="901" spans="1:26" ht="12.75" customHeight="1">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -25704,7 +26105,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" ht="12.75" customHeight="1">
+    <row r="902" spans="1:26" ht="12.75" customHeight="1">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -25732,7 +26133,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" ht="12.75" customHeight="1">
+    <row r="903" spans="1:26" ht="12.75" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -25760,7 +26161,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" ht="12.75" customHeight="1">
+    <row r="904" spans="1:26" ht="12.75" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -25788,7 +26189,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" ht="12.75" customHeight="1">
+    <row r="905" spans="1:26" ht="12.75" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -25816,7 +26217,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" ht="12.75" customHeight="1">
+    <row r="906" spans="1:26" ht="12.75" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -25844,7 +26245,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" ht="12.75" customHeight="1">
+    <row r="907" spans="1:26" ht="12.75" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -25872,7 +26273,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" ht="12.75" customHeight="1">
+    <row r="908" spans="1:26" ht="12.75" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -25900,7 +26301,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" ht="12.75" customHeight="1">
+    <row r="909" spans="1:26" ht="12.75" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -25928,7 +26329,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" ht="12.75" customHeight="1">
+    <row r="910" spans="1:26" ht="12.75" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -25956,7 +26357,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" ht="12.75" customHeight="1">
+    <row r="911" spans="1:26" ht="12.75" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -25984,7 +26385,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" ht="12.75" customHeight="1">
+    <row r="912" spans="1:26" ht="12.75" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -26012,7 +26413,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" ht="12.75" customHeight="1">
+    <row r="913" spans="1:26" ht="12.75" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -26040,7 +26441,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" ht="12.75" customHeight="1">
+    <row r="914" spans="1:26" ht="12.75" customHeight="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -26068,7 +26469,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" ht="12.75" customHeight="1">
+    <row r="915" spans="1:26" ht="12.75" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -26096,7 +26497,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" ht="12.75" customHeight="1">
+    <row r="916" spans="1:26" ht="12.75" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -26124,7 +26525,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" ht="12.75" customHeight="1">
+    <row r="917" spans="1:26" ht="12.75" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -26152,7 +26553,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" ht="12.75" customHeight="1">
+    <row r="918" spans="1:26" ht="12.75" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -26180,7 +26581,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" ht="12.75" customHeight="1">
+    <row r="919" spans="1:26" ht="12.75" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -26208,7 +26609,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" ht="12.75" customHeight="1">
+    <row r="920" spans="1:26" ht="12.75" customHeight="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -26236,7 +26637,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" ht="12.75" customHeight="1">
+    <row r="921" spans="1:26" ht="12.75" customHeight="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -26264,7 +26665,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" ht="12.75" customHeight="1">
+    <row r="922" spans="1:26" ht="12.75" customHeight="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -26292,7 +26693,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" ht="12.75" customHeight="1">
+    <row r="923" spans="1:26" ht="12.75" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -26320,7 +26721,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" ht="12.75" customHeight="1">
+    <row r="924" spans="1:26" ht="12.75" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -26348,7 +26749,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" ht="12.75" customHeight="1">
+    <row r="925" spans="1:26" ht="12.75" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -26376,7 +26777,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" ht="12.75" customHeight="1">
+    <row r="926" spans="1:26" ht="12.75" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -26404,7 +26805,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" ht="12.75" customHeight="1">
+    <row r="927" spans="1:26" ht="12.75" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -26432,7 +26833,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" ht="12.75" customHeight="1">
+    <row r="928" spans="1:26" ht="12.75" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -26460,7 +26861,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" ht="12.75" customHeight="1">
+    <row r="929" spans="1:26" ht="12.75" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -26488,7 +26889,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" ht="12.75" customHeight="1">
+    <row r="930" spans="1:26" ht="12.75" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -26516,7 +26917,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" ht="12.75" customHeight="1">
+    <row r="931" spans="1:26" ht="12.75" customHeight="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -26544,7 +26945,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" ht="12.75" customHeight="1">
+    <row r="932" spans="1:26" ht="12.75" customHeight="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -26572,7 +26973,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" ht="12.75" customHeight="1">
+    <row r="933" spans="1:26" ht="12.75" customHeight="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -26600,7 +27001,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" ht="12.75" customHeight="1">
+    <row r="934" spans="1:26" ht="12.75" customHeight="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -26628,7 +27029,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" ht="12.75" customHeight="1">
+    <row r="935" spans="1:26" ht="12.75" customHeight="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -26656,7 +27057,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" ht="12.75" customHeight="1">
+    <row r="936" spans="1:26" ht="12.75" customHeight="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -26684,7 +27085,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" ht="12.75" customHeight="1">
+    <row r="937" spans="1:26" ht="12.75" customHeight="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -26712,7 +27113,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" ht="12.75" customHeight="1">
+    <row r="938" spans="1:26" ht="12.75" customHeight="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -26740,7 +27141,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" ht="12.75" customHeight="1">
+    <row r="939" spans="1:26" ht="12.75" customHeight="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -26768,7 +27169,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" ht="12.75" customHeight="1">
+    <row r="940" spans="1:26" ht="12.75" customHeight="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -26796,7 +27197,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" ht="12.75" customHeight="1">
+    <row r="941" spans="1:26" ht="12.75" customHeight="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -26824,7 +27225,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" ht="12.75" customHeight="1">
+    <row r="942" spans="1:26" ht="12.75" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -26852,7 +27253,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" ht="12.75" customHeight="1">
+    <row r="943" spans="1:26" ht="12.75" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -26880,7 +27281,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" ht="12.75" customHeight="1">
+    <row r="944" spans="1:26" ht="12.75" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -26908,7 +27309,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" ht="12.75" customHeight="1">
+    <row r="945" spans="1:26" ht="12.75" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -26936,7 +27337,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" ht="12.75" customHeight="1">
+    <row r="946" spans="1:26" ht="12.75" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -26964,7 +27365,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" ht="12.75" customHeight="1">
+    <row r="947" spans="1:26" ht="12.75" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -26992,7 +27393,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" ht="12.75" customHeight="1">
+    <row r="948" spans="1:26" ht="12.75" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -27020,7 +27421,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" ht="12.75" customHeight="1">
+    <row r="949" spans="1:26" ht="12.75" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -27048,7 +27449,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" ht="12.75" customHeight="1">
+    <row r="950" spans="1:26" ht="12.75" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -27076,7 +27477,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" ht="12.75" customHeight="1">
+    <row r="951" spans="1:26" ht="12.75" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -27104,7 +27505,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" ht="12.75" customHeight="1">
+    <row r="952" spans="1:26" ht="12.75" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -27132,7 +27533,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" ht="12.75" customHeight="1">
+    <row r="953" spans="1:26" ht="12.75" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -27160,7 +27561,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" ht="12.75" customHeight="1">
+    <row r="954" spans="1:26" ht="12.75" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -27188,7 +27589,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" ht="12.75" customHeight="1">
+    <row r="955" spans="1:26" ht="12.75" customHeight="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -27216,7 +27617,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" ht="12.75" customHeight="1">
+    <row r="956" spans="1:26" ht="12.75" customHeight="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -27244,7 +27645,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" ht="12.75" customHeight="1">
+    <row r="957" spans="1:26" ht="12.75" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -27272,7 +27673,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" ht="12.75" customHeight="1">
+    <row r="958" spans="1:26" ht="12.75" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -27300,7 +27701,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" ht="12.75" customHeight="1">
+    <row r="959" spans="1:26" ht="12.75" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -27328,7 +27729,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" ht="12.75" customHeight="1">
+    <row r="960" spans="1:26" ht="12.75" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -27356,7 +27757,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" ht="12.75" customHeight="1">
+    <row r="961" spans="1:26" ht="12.75" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -27384,7 +27785,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" ht="12.75" customHeight="1">
+    <row r="962" spans="1:26" ht="12.75" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -27412,7 +27813,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" ht="12.75" customHeight="1">
+    <row r="963" spans="1:26" ht="12.75" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -27440,7 +27841,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" ht="12.75" customHeight="1">
+    <row r="964" spans="1:26" ht="12.75" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -27468,7 +27869,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" ht="12.75" customHeight="1">
+    <row r="965" spans="1:26" ht="12.75" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -27496,7 +27897,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" ht="12.75" customHeight="1">
+    <row r="966" spans="1:26" ht="12.75" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -27524,7 +27925,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" ht="12.75" customHeight="1">
+    <row r="967" spans="1:26" ht="12.75" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -27552,7 +27953,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" ht="12.75" customHeight="1">
+    <row r="968" spans="1:26" ht="12.75" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -27580,7 +27981,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" ht="12.75" customHeight="1">
+    <row r="969" spans="1:26" ht="12.75" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -27608,7 +28009,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" ht="12.75" customHeight="1">
+    <row r="970" spans="1:26" ht="12.75" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -27636,7 +28037,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" ht="12.75" customHeight="1">
+    <row r="971" spans="1:26" ht="12.75" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -27664,7 +28065,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" ht="12.75" customHeight="1">
+    <row r="972" spans="1:26" ht="12.75" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -27692,7 +28093,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" ht="12.75" customHeight="1">
+    <row r="973" spans="1:26" ht="12.75" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -27720,7 +28121,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" ht="12.75" customHeight="1">
+    <row r="974" spans="1:26" ht="12.75" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -27748,7 +28149,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" ht="12.75" customHeight="1">
+    <row r="975" spans="1:26" ht="12.75" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -27776,7 +28177,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" ht="12.75" customHeight="1">
+    <row r="976" spans="1:26" ht="12.75" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -27804,7 +28205,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" ht="12.75" customHeight="1">
+    <row r="977" spans="1:26" ht="12.75" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -27832,7 +28233,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" ht="12.75" customHeight="1">
+    <row r="978" spans="1:26" ht="12.75" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -27860,7 +28261,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" ht="12.75" customHeight="1">
+    <row r="979" spans="1:26" ht="12.75" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -27888,7 +28289,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" ht="12.75" customHeight="1">
+    <row r="980" spans="1:26" ht="12.75" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -27916,7 +28317,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" ht="12.75" customHeight="1">
+    <row r="981" spans="1:26" ht="12.75" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -27944,7 +28345,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" ht="12.75" customHeight="1">
+    <row r="982" spans="1:26" ht="12.75" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -27972,7 +28373,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" ht="12.75" customHeight="1">
+    <row r="983" spans="1:26" ht="12.75" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -28000,7 +28401,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" ht="12.75" customHeight="1">
+    <row r="984" spans="1:26" ht="12.75" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -28028,7 +28429,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" ht="12.75" customHeight="1">
+    <row r="985" spans="1:26" ht="12.75" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -28056,7 +28457,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" ht="12.75" customHeight="1">
+    <row r="986" spans="1:26" ht="12.75" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -28084,7 +28485,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" ht="12.75" customHeight="1">
+    <row r="987" spans="1:26" ht="12.75" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -28112,7 +28513,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" ht="12.75" customHeight="1">
+    <row r="988" spans="1:26" ht="12.75" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -28140,7 +28541,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" ht="12.75" customHeight="1">
+    <row r="989" spans="1:26" ht="12.75" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -28168,7 +28569,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" ht="12.75" customHeight="1">
+    <row r="990" spans="1:26" ht="12.75" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -28196,7 +28597,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" ht="12.75" customHeight="1">
+    <row r="991" spans="1:26" ht="12.75" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -28224,7 +28625,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" ht="12.75" customHeight="1">
+    <row r="992" spans="1:26" ht="12.75" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -28252,7 +28653,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" ht="12.75" customHeight="1">
+    <row r="993" spans="1:26" ht="12.75" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -28280,7 +28681,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" ht="12.75" customHeight="1">
+    <row r="994" spans="1:26" ht="12.75" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -28308,7 +28709,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" ht="12.75" customHeight="1">
+    <row r="995" spans="1:26" ht="12.75" customHeight="1">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -28336,7 +28737,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" ht="12.75" customHeight="1">
+    <row r="996" spans="1:26" ht="12.75" customHeight="1">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -28364,7 +28765,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" ht="12.75" customHeight="1">
+    <row r="997" spans="1:26" ht="12.75" customHeight="1">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -28392,7 +28793,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" ht="12.75" customHeight="1">
+    <row r="998" spans="1:26" ht="12.75" customHeight="1">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -28420,7 +28821,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" ht="12.75" customHeight="1">
+    <row r="999" spans="1:26" ht="12.75" customHeight="1">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -28448,7 +28849,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" ht="12.75" customHeight="1">
+    <row r="1000" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -28477,7 +28878,8 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -188,9 +188,6 @@
     <t>Decidimos continuar fazendo em PHP.</t>
   </si>
   <si>
-    <t>Inegração</t>
-  </si>
-  <si>
     <t>Decidimos seguir o nosso projeto focando em nossa parte e caso a outra equipe consiga progredir no seu desenvolvimento, então estudaremos a possibilidade da integração.</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Estudar previamente o framework ao mesmo tempo que exercitamos a parte prática com auxílio de Michelle que tem um conhecimento mais avnaçado na área.</t>
+  </si>
+  <si>
+    <t>Integração</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1032,7 +1032,7 @@
         <v>42907</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>32</v>
@@ -1054,7 +1054,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1081,10 +1081,10 @@
         <v>42913</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>13</v>
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>

--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>SABolsas -  Risk List</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Definição da linguagem que será utilizada no desenvolvimento.</t>
   </si>
   <si>
-    <t>Todos ou Arquiteto?</t>
-  </si>
-  <si>
     <t>Definir uma linguagem de programação em que todos os integrantes já tenham conhecimento.</t>
   </si>
   <si>
@@ -201,6 +198,24 @@
   </si>
   <si>
     <t>Integração</t>
+  </si>
+  <si>
+    <t>Teste Unitário</t>
+  </si>
+  <si>
+    <t>Estudar previamente o funcionamento de teste unitário com o phpUnit e realizar um teste básico em conjunto, para que todos os membros da equipe adquiram uma base de como executar os teste.</t>
+  </si>
+  <si>
+    <t>Realizar teste Unitário com o phpUnit no sistema</t>
+  </si>
+  <si>
+    <t>Integração do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Integração do Banco de Dados com o outro sistema</t>
+  </si>
+  <si>
+    <t>Reunião presencial com as equipes, para deixar bem definido as tabelas e os seus respectivos atributos.</t>
   </si>
 </sst>
 </file>
@@ -633,7 +648,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -855,10 +870,10 @@
         <v>1.5</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -885,13 +900,13 @@
         <v>42897</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
@@ -907,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -934,10 +949,10 @@
         <v>42897</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
@@ -953,10 +968,10 @@
         <v>2.5</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -983,10 +998,10 @@
         <v>42906</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
@@ -1005,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -1032,10 +1047,10 @@
         <v>42907</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>13</v>
@@ -1054,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1081,10 +1096,10 @@
         <v>42913</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>13</v>
@@ -1103,7 +1118,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1122,22 +1137,38 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+    <row r="11" spans="1:26" ht="27" customHeight="1">
       <c r="A11" s="6">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="7">
+        <v>42915</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.5</v>
+      </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -1155,22 +1186,38 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+    <row r="12" spans="1:26" ht="51" customHeight="1">
       <c r="A12" s="6">
         <v>13</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
+      <c r="B12" s="7">
+        <v>42920</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.5</v>
+      </c>
       <c r="H12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="H12" si="1">+F12*G12</f>
+        <v>1.5</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>

--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>SABolsas -  Risk List</t>
   </si>
@@ -217,6 +217,15 @@
   <si>
     <t>Reunião presencial com as equipes, para deixar bem definido as tabelas e os seus respectivos atributos.</t>
   </si>
+  <si>
+    <t>Semana de Provas</t>
+  </si>
+  <si>
+    <t>Os integrantes da equipe estão em semana de provas.</t>
+  </si>
+  <si>
+    <t>Tentar quebrar as atividades em pedaços menores, para ser possível cada um dar conta do que foi designado.</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,9 +334,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,7 +654,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1019,7 +1025,7 @@
       <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="10"/>
@@ -1046,13 +1052,13 @@
       <c r="B9" s="7">
         <v>42907</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="6">
@@ -1065,10 +1071,10 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="10"/>
@@ -1092,32 +1098,32 @@
       <c r="A10" s="6">
         <v>11</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>42913</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>5</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.5</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="17" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="10"/>
@@ -1144,10 +1150,10 @@
       <c r="B11" s="7">
         <v>42915</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1166,7 +1172,7 @@
       <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="10"/>
@@ -1196,7 +1202,7 @@
       <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1215,7 +1221,7 @@
       <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="10"/>
@@ -1235,22 +1241,38 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+    <row r="13" spans="1:26" ht="35.25" customHeight="1">
       <c r="A13" s="6">
         <v>14</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="7">
+        <v>42923</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.8</v>
+      </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>

--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\Cliente\project-management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Risks" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Risks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +39,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Risk Type =
+          <t>Risk Type =
 Direct or Indirect
 Resource
 Business 
@@ -44,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,12 +58,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Impact is a numerical value, usually between 1 and 5, that represents the impact to the project if the risk comes true.
+          <t>Impact is a numerical value, usually between 1 and 5, that represents the impact to the project if the risk comes true.
 5 is a HIGH IMPACT and 1 is LOW IMPACT.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,11 +73,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Probability is the percentage chance that a risk will occur.</t>
+          <t>Probability is the percentage chance that a risk will occur.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +87,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Magnitude is the result of the multiplication of Probability and Impact, providing a joint metric suitable for sorting.</t>
+          <t>Magnitude is the result of the multiplication of Probability and Impact, providing a joint metric suitable for sorting.</t>
         </r>
       </text>
     </comment>
@@ -92,166 +96,158 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">SABolsas -  Risk List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Identified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Headline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitigation Strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuração ambiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuração do Repositório pelo gerente de configuração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerente de Configuração (Nome)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criação de repositórios de testes, leitura de documentação, análise de repositórios existentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição dos templates para os artefatos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análise de projetos anteriores para adaptação dos templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linguagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição da linguagem que será utilizada no desenvolvimento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir uma linguagem de programação em que todos os integrantes já tenham conhecimento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desistência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algum integrante desistir da matéria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motivar a equipe e procurar ter o melhor desempenho para não deixar demanda acumulada para a reta final, o que poderia desmotivar alguem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunicação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição de um meio de comunicação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerente de Projetos (Nome)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir um aplicativo de comunicação, para discussão técnica sobre o projeto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Migração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Migrar sistema para Ruby.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decidimos continuar fazendo em PHP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrar sistema com a outra equipe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decidimos seguir o nosso projeto focando em nossa parte e caso a outra equipe consiga progredir no seu desenvolvimento, então estudaremos a possibilidade da integração.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilizar o Framework Laravel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudar previamente o framework ao mesmo tempo que exercitamos a parte prática com auxílio de Michelle que tem um conhecimento mais avançado na área.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integração do Banco de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integração do Banco de Dados com o outro sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunião presencial com as equipes, para deixar bem definido as tabelas e os seus respectivos atributos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste Unitário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar teste Unitário com o phpUnit no sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudar previamente o funcionamento de teste unitário com o phpUnit e realizar um teste básico em conjunto, para que todos os membros da equipe adquiram uma base de como executar os teste.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana de Provas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os integrantes da equipe estão em semana de provas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentar quebrar as atividades em pedaços menores, para ser possível cada um dar conta do que foi designado.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+  <si>
+    <t>SABolsas -  Risk List</t>
+  </si>
+  <si>
+    <t>Risk ID</t>
+  </si>
+  <si>
+    <t>Date Identified</t>
+  </si>
+  <si>
+    <t>Headline</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Mitigation Strategy</t>
+  </si>
+  <si>
+    <t>Configuração ambiente</t>
+  </si>
+  <si>
+    <t>Configuração do Repositório pelo gerente de configuração</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Criação de repositórios de testes, leitura de documentação, análise de repositórios existentes</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Definição dos templates para os artefatos</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Análise de projetos anteriores para adaptação dos templates</t>
+  </si>
+  <si>
+    <t>Linguagem</t>
+  </si>
+  <si>
+    <t>Definição da linguagem que será utilizada no desenvolvimento.</t>
+  </si>
+  <si>
+    <t>Definir uma linguagem de programação em que todos os integrantes já tenham conhecimento.</t>
+  </si>
+  <si>
+    <t>Desistência</t>
+  </si>
+  <si>
+    <t>Algum integrante desistir da matéria</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Motivar a equipe e procurar ter o melhor desempenho para não deixar demanda acumulada para a reta final, o que poderia desmotivar alguem.</t>
+  </si>
+  <si>
+    <t>Comunicação</t>
+  </si>
+  <si>
+    <t>Definição de um meio de comunicação.</t>
+  </si>
+  <si>
+    <t>Definir um aplicativo de comunicação, para discussão técnica sobre o projeto.</t>
+  </si>
+  <si>
+    <t>Migração</t>
+  </si>
+  <si>
+    <t>Migrar sistema para Ruby.</t>
+  </si>
+  <si>
+    <t>Decidimos continuar fazendo em PHP.</t>
+  </si>
+  <si>
+    <t>Integração</t>
+  </si>
+  <si>
+    <t>Integrar sistema com a outra equipe.</t>
+  </si>
+  <si>
+    <t>Decidimos seguir o nosso projeto focando em nossa parte e caso a outra equipe consiga progredir no seu desenvolvimento, então estudaremos a possibilidade da integração.</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Utilizar o Framework Laravel.</t>
+  </si>
+  <si>
+    <t>Estudar previamente o framework ao mesmo tempo que exercitamos a parte prática com auxílio de Michelle que tem um conhecimento mais avançado na área.</t>
+  </si>
+  <si>
+    <t>Integração do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Integração do Banco de Dados com o outro sistema</t>
+  </si>
+  <si>
+    <t>Reunião presencial com as equipes, para deixar bem definido as tabelas e os seus respectivos atributos.</t>
+  </si>
+  <si>
+    <t>Teste Unitário</t>
+  </si>
+  <si>
+    <t>Realizar teste Unitário com o phpUnit no sistema</t>
+  </si>
+  <si>
+    <t>Estudar previamente o funcionamento de teste unitário com o phpUnit e realizar um teste básico em conjunto, para que todos os membros da equipe adquiram uma base de como executar os teste.</t>
+  </si>
+  <si>
+    <t>Semana de Provas</t>
+  </si>
+  <si>
+    <t>Os integrantes da equipe estão em semana de provas.</t>
+  </si>
+  <si>
+    <t>Tentar quebrar as atividades em pedaços menores, para ser possível cada um dar conta do que foi designado.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -260,22 +256,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -288,7 +269,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -304,155 +285,565 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F8" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.5408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="11" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="26" min="21" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.1734693877551"/>
+    <col min="1" max="1" width="3.42578125"/>
+    <col min="2" max="2" width="10.140625"/>
+    <col min="3" max="3" width="34.42578125"/>
+    <col min="4" max="4" width="35.28515625"/>
+    <col min="5" max="5" width="10.85546875"/>
+    <col min="6" max="6" width="9.28515625"/>
+    <col min="8" max="8" width="8.140625"/>
+    <col min="9" max="9" width="23"/>
+    <col min="10" max="10" width="49.5703125"/>
+    <col min="11" max="20" width="11.140625"/>
+    <col min="21" max="26" width="7.85546875"/>
+    <col min="27" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +873,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -530,11 +921,11 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>42892</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -546,21 +937,21 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <f aca="false">+F3*G3</f>
-        <v>1.5</v>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H17" si="0">+F3*G3</f>
+        <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -579,37 +970,37 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>42892</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <f aca="false">+F4*G4</f>
-        <v>1</v>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -628,37 +1019,37 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>42892</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>5</v>
       </c>
-      <c r="G5" s="8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <f aca="false">+F5*G5</f>
-        <v>1.5</v>
+      <c r="G5" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -677,37 +1068,37 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>42897</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <f aca="false">+F6*G6</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -726,37 +1117,37 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>42897</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <f aca="false">+F7*G7</f>
-        <v>2.5</v>
+      <c r="G7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -775,37 +1166,37 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="7">
         <v>42906</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="8">
         <v>0.8</v>
       </c>
-      <c r="H8" s="9" t="n">
-        <f aca="false">+F8*G8</f>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -824,37 +1215,37 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="7">
         <v>42907</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="8">
         <v>0.9</v>
       </c>
-      <c r="H9" s="9" t="n">
-        <f aca="false">+F9*G9</f>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -873,37 +1264,37 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="11">
         <v>42913</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="12">
         <v>5</v>
       </c>
-      <c r="G10" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <f aca="false">+F10*G10</f>
-        <v>2.5</v>
+      <c r="G10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -922,37 +1313,37 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="7">
         <v>42915</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <f aca="false">+F11*G11</f>
-        <v>2.5</v>
+      <c r="G11" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -971,37 +1362,37 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>42920</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <f aca="false">+F12*G12</f>
-        <v>1.5</v>
+      <c r="F12" s="6">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -1020,37 +1411,37 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>14</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="7">
         <v>42923</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="9" t="n">
-        <f aca="false">+F13*G13</f>
-        <v>4</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1069,8 +1460,8 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>15</v>
       </c>
       <c r="B14" s="7"/>
@@ -1079,8 +1470,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="9" t="n">
-        <f aca="false">+F14*G14</f>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
@@ -1102,8 +1493,8 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>16</v>
       </c>
       <c r="B15" s="7"/>
@@ -1112,8 +1503,8 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="9" t="n">
-        <f aca="false">+F15*G15</f>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="9"/>
@@ -1135,8 +1526,8 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>17</v>
       </c>
       <c r="B16" s="7"/>
@@ -1145,8 +1536,8 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="9" t="n">
-        <f aca="false">+F16*G16</f>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
@@ -1168,8 +1559,8 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>18</v>
       </c>
       <c r="B17" s="7"/>
@@ -1178,8 +1569,8 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="9" t="n">
-        <f aca="false">+F17*G17</f>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="9"/>
@@ -1202,13 +1593,9 @@
       <c r="Z17" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\Cliente\project-management\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>SABolsas -  Risk List</t>
   </si>
@@ -237,17 +232,26 @@
   </si>
   <si>
     <t>Tentar quebrar as atividades em pedaços menores, para ser possível cada um dar conta do que foi designado.</t>
+  </si>
+  <si>
+    <t>Problemas Técnicos</t>
+  </si>
+  <si>
+    <t>Atualmente só um integrante possui notebook, em caso de problema, ficamos incapazes de apresentar.</t>
+  </si>
+  <si>
+    <t>Tirar prints das telas que desenvolvemos, para em caso de problemas, ser possível mostrar o andamento do projeto.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -601,7 +605,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,7 +640,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,21 +817,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.42578125"/>
     <col min="2" max="2" width="10.140625"/>
@@ -843,7 +847,7 @@
     <col min="27" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +877,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="65.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -921,7 +925,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="25.5" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -970,7 +974,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="25.5" customHeight="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1019,7 +1023,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="25.5" customHeight="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1068,7 +1072,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="38.25" customHeight="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1117,7 +1121,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="25.5" customHeight="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1166,7 +1170,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="A8" s="6">
         <v>9</v>
       </c>
@@ -1215,7 +1219,7 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="62.25" customHeight="1">
       <c r="A9" s="6">
         <v>10</v>
       </c>
@@ -1264,7 +1268,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="57" customHeight="1">
       <c r="A10" s="6">
         <v>11</v>
       </c>
@@ -1313,7 +1317,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="27" customHeight="1">
       <c r="A11" s="6">
         <v>12</v>
       </c>
@@ -1362,7 +1366,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="59.25" customHeight="1">
       <c r="A12" s="6">
         <v>13</v>
       </c>
@@ -1411,7 +1415,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="50.25" customHeight="1">
       <c r="A13" s="6">
         <v>14</v>
       </c>
@@ -1460,22 +1464,38 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="43.5" customHeight="1">
       <c r="A14" s="6">
         <v>15</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="7">
+        <v>42934</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -1493,7 +1513,7 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="A15" s="6">
         <v>16</v>
       </c>
@@ -1526,7 +1546,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="A16" s="6">
         <v>17</v>
       </c>
@@ -1559,7 +1579,7 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="12.75" customHeight="1">
       <c r="A17" s="6">
         <v>18</v>
       </c>

--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -817,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1190,11 +1190,11 @@
         <v>5</v>
       </c>
       <c r="G8" s="8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>17</v>
@@ -1337,11 +1337,11 @@
         <v>5</v>
       </c>
       <c r="G11" s="8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>17</v>

--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -817,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,7 +828,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1043,11 +1043,11 @@
         <v>5</v>
       </c>
       <c r="G5" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>17</v>
@@ -1092,11 +1092,11 @@
         <v>5</v>
       </c>
       <c r="G6" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>17</v>
@@ -1141,11 +1141,11 @@
         <v>5</v>
       </c>
       <c r="G7" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>17</v>
@@ -1239,11 +1239,11 @@
         <v>5</v>
       </c>
       <c r="G9" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>17</v>
@@ -1288,11 +1288,11 @@
         <v>5</v>
       </c>
       <c r="G10" s="13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>17</v>
@@ -1337,11 +1337,11 @@
         <v>5</v>
       </c>
       <c r="G11" s="8">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>17</v>
@@ -1435,11 +1435,11 @@
         <v>5</v>
       </c>
       <c r="G13" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>17</v>
@@ -1484,11 +1484,11 @@
         <v>5</v>
       </c>
       <c r="G14" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>17</v>

--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -817,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,7 +828,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1043,11 +1043,11 @@
         <v>5</v>
       </c>
       <c r="G5" s="8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>17</v>
@@ -1288,11 +1288,11 @@
         <v>5</v>
       </c>
       <c r="G10" s="13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>17</v>
@@ -1337,11 +1337,11 @@
         <v>5</v>
       </c>
       <c r="G11" s="8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>17</v>
@@ -1386,11 +1386,11 @@
         <v>4</v>
       </c>
       <c r="G12" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>17</v>
@@ -1435,11 +1435,11 @@
         <v>5</v>
       </c>
       <c r="G13" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>17</v>

--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>SABolsas -  Risk List</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Tirar prints das telas que desenvolvemos, para em caso de problemas, ser possível mostrar o andamento do projeto.</t>
+  </si>
+  <si>
+    <t>Migração para o novo Layout</t>
+  </si>
+  <si>
+    <t>Nosso sistema terá o layout migrado para o padrão da outra equipe.</t>
+  </si>
+  <si>
+    <t>Pelo fato de cada equipe estar usando frameworks diferentes, é certo que um não cobrirá todas as possibilidades do outro, por isso, vamos sugerir caso necessário, utilizar os dois frameworks mantendo um padrão no Layout.</t>
   </si>
 </sst>
 </file>
@@ -817,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,7 +837,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1513,22 +1522,36 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1">
+    <row r="15" spans="1:26" ht="63.75" customHeight="1">
       <c r="A15" s="6">
         <v>16</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.5</v>
+      </c>
       <c r="H15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>

--- a/project-management/sabolsas-risk.xlsx
+++ b/project-management/sabolsas-risk.xlsx
@@ -225,9 +225,6 @@
     <t>Estudar previamente o funcionamento de teste unitário com o phpUnit e realizar um teste básico em conjunto, para que todos os membros da equipe adquiram uma base de como executar os teste.</t>
   </si>
   <si>
-    <t>Semana de Provas</t>
-  </si>
-  <si>
     <t>Os integrantes da equipe estão em semana de provas.</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Pelo fato de cada equipe estar usando frameworks diferentes, é certo que um não cobrirá todas as possibilidades do outro, por isso, vamos sugerir caso necessário, utilizar os dois frameworks mantendo um padrão no Layout.</t>
+  </si>
+  <si>
+    <t>Fim de semestre</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -837,7 +837,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1297,11 +1297,11 @@
         <v>5</v>
       </c>
       <c r="G10" s="13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>17</v>
@@ -1346,11 +1346,11 @@
         <v>5</v>
       </c>
       <c r="G11" s="8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>17</v>
@@ -1432,10 +1432,10 @@
         <v>42923</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>24</v>
@@ -1454,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1481,10 +1481,10 @@
         <v>42934</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>13</v>
@@ -1493,17 +1493,17 @@
         <v>5</v>
       </c>
       <c r="G14" s="8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1528,10 +1528,10 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>13</v>
@@ -1550,7 +1550,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
